--- a/test_data/purchase.xlsx
+++ b/test_data/purchase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="705" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="705" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="184">
   <si>
     <t>case_id</t>
   </si>
@@ -188,7 +188,7 @@
     <t>zcjl_cookie</t>
   </si>
   <si>
-    <t>{'code': 2000, 'data': {'actualPayCommission': None, 'additionEnroll': 0, 'agencyTrade': 'NOT_AGENCY_TRADE', 'agentId': '1387002351581421569', 'agentStatus': None, 'changeHouseDate': None, 'changeHouseProof': [], 'collectingCompanyId': None, 'commProjectId': 1, 'costs': None, 'createBy': '794d9ba7b6e74c91a6e4ed678df7bb26', 'createTime': '2022-03-17 22:02:18', 'currentPayableActualCommission': None, 'customerId': 33136, 'customerName': '龙光317栋业主1005', 'customerPhone': '13729112152', 'departmentId': 4807, 'departmentName': '北京日益通速递有限责任公司1', 'dissent': None, 'divisionId': 46, 'divisionName': '一组', 'exchangeOrder': False, 'finalAuditApproved': False, 'grossProfit': None, 'groupbuy': 1, 'groupbuyPayer': None, 'groupbuyPlanId': 10, 'groupbuyProof': [{'name': '599dae3c07fb416cbb55c63cb4f368de.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/599dae3c07fb416cbb55c63cb4f368de.jpeg'}], 'groupbuyRecieveDate': None, 'groupbuyRecieveId': None, 'groupbuyRecieveProof': [], 'groupbuyStatus': None, 'initialSignDate': None, 'initialSignProof': [], 'loanDate': None, 'loanProof': [], 'netProfits': None, 'netSignDate': None, 'netSignProof': [], 'normalStat': True, 'notAgencyTrade': True, 'originId': 0, 'originalPrice': 1040000, 'pay': None, 'payAdjustCommission': None, 'payAdjustMoney': None, 'payCaseDesc': '平台结佣方案：平台结佣', 'payCaseDescribe': '平台结佣方案：平台结佣', 'payCommPlanId': 65, 'payPlanId': 65, 'payStatus': None, 'payableCommission': 72400.0, 'payableCommissionProof': [], 'payableMoney': 72400.0, 'payedCommission': None, 'paymentMethod': 2, 'paymentMethodDesc': '按揭付款', 'platformDeptName': '北京日益通速递有限责任公司1', 'platformId': 999, 'platformPayAdjustCommission': None, 'platformPayCaseDescribe': None, 'platformPayCommPlanId': None, 'platformPayableCommission': None, 'platformPayableCommissionProof': [], 'prepay': 0, 'prepayCommission': None, 'projectAgencyOrder': False, 'projectAgencyTrade': False, 'projectId': 163, 'projectName': '华发广场', 'projectPlatformId': 999, 'projectPlatformName': '中山云经纪', 'purchaseCode': 'RG2022031737104136', 'purchaseDate': '2022-03-14', 'purchaseOrderType': 'NORMAL', 'purchasePrice': 1050000, 'purchaseProof': [{'name': 'cb86f751782446cd8aeb18fa8cc5c15c.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/cb86f751782446cd8aeb18fa8cc5c15c.jpeg'}], 'reAdjustCommision': None, 'realReceiveGroupbuy': 0, 'recCaseDescribe': None, 'recCommPlanId': None, 'recStatus': None, 'recStatusDesc': None, 'receivableCommision': 0, 'receivableCommissionProof': [], 'receivableGroupbuy': 40000, 'receiveGroupbuy': 40000, 'receivedCommission': None, 'recheckApproved': None, 'remark': '调接口生成认购单', 'reportId': 40322, 'reportTime': '2022-03-14 12:41:00', 'returnHouseDate': None, 'returnHouseProof': [], 'returnOrChangeStage': False, 'revenue': None, 'roomArea': '104.00', 'roomNo': '龙光317栋1005', 'saleAgencyTrade': False, 'salePlatformId': 999, 'salePlatformName': '中山云经纪', 'salePlatformOrDepartment': '北京日益通速递有限责任公司1', 'salePlatformOrDepartmentId': -4807, 'salePurchaseOrderId': 0, 'saleRecCommPlanId': None, 'settlePrice': 1060000, 'settlePriceProof': [], 'signPrice': 1060000, 'stage': 3, 'stageDesc': '认购', 'stageFromStatus': 3, 'stageState': None, 'status': 2, 'statusDesc': '认购初审中', 'totalReceivableCommission': 0, 'tradeConfirmDate': None, 'tradeId': 348, 'unPayedCommission': None, 'unReceivedCommission': None, 'updateBy': '794d9ba7b6e74c91a6e4ed678df7bb26', 'updateTime': '2022-03-17 22:02:18', 'validRecCommPlanId': None, 'visitTime': '2022-03-14 12:42:00', 'voucherDepartmentPay': None, 'voucherId': None, 'voucherPay': None}, 'msg': 'SUCCESS'}</t>
+    <t>{'code': 2000, 'data': {'actualPayCommission': None, 'additionEnroll': 0, 'agencyTrade': 'NOT_AGENCY_TRADE', 'agentId': '86d50b0e8aa045068e8755b7eb62a6cb', 'agentStatus': None, 'changeHouseDate': None, 'changeHouseProof': [], 'collectingCompanyId': None, 'commProjectId': 68, 'costs': None, 'createBy': '3f232aa91d334502aea0d9424d01481b', 'createTime': '2022-03-18 11:55:01', 'currentPayableActualCommission': None, 'customerId': 38883, 'customerName': '龙光317栋业主1008', 'customerPhone': '13729112152', 'departmentId': 4807, 'departmentName': '北京日益通速递有限责任公司2222', 'dissent': None, 'divisionId': 40, 'divisionName': '测试部', 'exchangeOrder': False, 'finalAuditApproved': False, 'grossProfit': None, 'groupbuy': 1, 'groupbuyPayer': None, 'groupbuyPlanId': 10, 'groupbuyProof': [{'name': '599dae3c07fb416cbb55c63cb4f368de.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/599dae3c07fb416cbb55c63cb4f368de.jpeg'}], 'groupbuyRecieveDate': None, 'groupbuyRecieveId': None, 'groupbuyRecieveProof': [], 'groupbuyStatus': None, 'initialSignDate': None, 'initialSignProof': [], 'loanDate': None, 'loanProof': [], 'netProfits': None, 'netSignDate': None, 'netSignProof': [], 'normalStat': True, 'notAgencyTrade': True, 'originId': 0, 'originalPrice': 1040000, 'pay': None, 'payAdjustCommission': None, 'payAdjustMoney': None, 'payCaseDesc': '平台/门店结佣方案', 'payCaseDescribe': '平台/门店结佣方案', 'payCommPlanId': 206, 'payPlanId': 206, 'payStatus': None, 'payableCommission': 83000.0, 'payableCommissionProof': [], 'payableMoney': 83000.0, 'payedCommission': None, 'paymentMethod': 2, 'paymentMethodDesc': '按揭付款', 'platformDeptName': '北京日益通速递有限责任公司2222', 'platformId': 999, 'platformPayAdjustCommission': None, 'platformPayCaseDescribe': None, 'platformPayCommPlanId': None, 'platformPayableCommission': None, 'platformPayableCommissionProof': [], 'prepay': 1, 'prepayCommission': None, 'projectAgencyOrder': False, 'projectAgencyTrade': False, 'projectId': 31, 'projectName': '华发四季1', 'projectPlatformId': 999, 'projectPlatformName': '中山云经纪', 'purchaseCode': 'RG2022031837413537', 'purchaseDate': '2022-03-14', 'purchaseOrderType': 'NORMAL', 'purchasePrice': 1050000, 'purchaseProof': [{'name': 'cb86f751782446cd8aeb18fa8cc5c15c.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/cb86f751782446cd8aeb18fa8cc5c15c.jpeg'}], 'reAdjustCommision': None, 'realReceiveGroupbuy': 0, 'recCaseDescribe': None, 'recCommPlanId': None, 'recStatus': None, 'recStatusDesc': None, 'receivableCommision': 0, 'receivableCommissionProof': [], 'receivableGroupbuy': 40000, 'receiveGroupbuy': 40000, 'receivedCommission': None, 'recheckApproved': None, 'remark': '调接口生成认购单', 'reportId': 44503, 'reportTime': '2022-03-14 12:41:00', 'returnHouseDate': None, 'returnHouseProof': [], 'returnOrChangeStage': False, 'revenue': None, 'roomArea': '104.00', 'roomNo': '龙光317栋1008', 'saleAgencyTrade': False, 'salePlatformId': 999, 'salePlatformName': '中山云经纪', 'salePlatformOrDepartment': '北京日益通速递有限责任公司2222', 'salePlatformOrDepartmentId': -4807, 'salePurchaseOrderId': 0, 'saleRecCommPlanId': None, 'settlePrice': 1060000, 'settlePriceProof': [], 'signPrice': 1060000, 'stage': 3, 'stageDesc': '认购', 'stageFromStatus': 3, 'stageState': None, 'status': 2, 'statusDesc': '认购初审中', 'totalReceivableCommission': 0, 'tradeConfirmDate': None, 'tradeId': 3210, 'unPayedCommission': None, 'unReceivedCommission': None, 'updateBy': '3f232aa91d334502aea0d9424d01481b', 'updateTime': '2022-03-18 11:55:01', 'validRecCommPlanId': None, 'visitTime': '2022-03-14 12:42:00', 'voucherDepartmentPay': None, 'voucherId': None, 'voucherPay': None}, 'msg': 'SUCCESS'}</t>
   </si>
   <si>
     <t>/commission/app/order/cut/detail/get</t>
@@ -200,7 +200,7 @@
     <t>{"cityId":306,"platformId":${salePlatformId},"system":"android","model":"phone","appId":"commission","uid":"${zcjl_userid}","id":${tradeId}}</t>
   </si>
   <si>
-    <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.5, 'userId': '564288f9ae65416c836cc46a7bb79c9c', 'userName': '测试（拓展）'}, {'cutAmount': 0.0, 'divisionName': '中山云经纪', 'number': 2, 'payedCut': 0.0, 'ratio': 0.1, 'userId': 'a5a1c18ed11a4c1ea5e5ceed9da5ebe8', 'userName': '拓展总监（业绩）'}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': 0.5, 'superiorCutAmount': 0.0, 'superiorId': '05f6c85ef9be43db9b86272361ec9b15', 'superiorName': '验收清空业绩（拓展经理）(离职)', 'superiorPayedCut': 0.0, 'superiorRoleName': '拓展经理', 'superiorSuperiorCutAmount': 0.0, 'superiorSuperiorId': '8939e7cbae8f4df5beb8c3daf125a962', 'superiorSuperiorName': '测试（拓展总监）', 'superiorSuperiorPayedCut': 0.0, 'superiorSuperiorRoleName': '拓展总监'}, {'number': 2, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 1, 'fixedAmount': None, 'standRatioDtos': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.3, 'userId': 'b443db61e91c4fc29e53e02d81b88ac4', 'userName': '测试（驻场）'}, {'cutAmount': 0.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.4, 'userId': 'bf370e16a4ef4ea7933914d4659fe277', 'userName': 'im驻场'}, {'cutAmount': 0.0, 'divisionName': '测试部', 'number': 3, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '7115d39854b64c18b67ccd45e452b79e', 'userName': '测试（驻场2）'}]}, 'currentStandManager': {'areaManager': '测试（区域总）', 'areaManagerCutAmount': 0.0, 'areaManagerId': '169f34f4f67345d3b591c2ba62b5c720', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '萧伟德', 'saleManagerCutAmount': 0.0, 'saleManagerId': '0bdb7b2ac84211eb8c6e00163e12a8a4', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '测试（驻场经理）', 'standManagerCutAmount': 0.0, 'standManagerId': '794d9ba7b6e74c91a6e4ed678df7bb26', 'standManagerPayedCut': 0.0, 'standManagerRatio': 1.0}, 'lineCutDone': 0, 'revenue': 0.0}, 'msg': 'SUCCESS'}</t>
+    <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '07b2f4006d64437ebaf6cbf5849320e2', 'userName': '拓展real'}, {'cutAmount': None, 'divisionName': None, 'number': 2, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': 0.1, 'superiorCutAmount': 0.0, 'superiorId': '3e03b5451e0c4b4f8618874f269a814a', 'superiorName': '拓展经理real', 'superiorPayedCut': 0.0, 'superiorRoleName': '拓展经理', 'superiorSuperiorCutAmount': 0.0, 'superiorSuperiorId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'superiorSuperiorName': '区域总real', 'superiorSuperiorPayedCut': 0.0, 'superiorSuperiorRoleName': '拓展总监'}, {'number': 2, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 1, 'fixedAmount': None, 'standRatioDtos': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.5, 'userId': '3f232aa91d334502aea0d9424d01481b', 'userName': '驻场经理real1'}, {'cutAmount': 0.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.3, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': 0.0, 'divisionName': 'APP推送测试', 'number': 3, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '729e2f29f8a74724a6baa03f22991e45', 'userName': '驻场经理1'}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 0.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 0.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 0.5}, 'lineCutDone': 0, 'revenue': 0.0}, 'msg': 'SUCCESS'}</t>
   </si>
   <si>
     <t>/commission/app/trade/first/approve</t>
@@ -1191,9 +1191,6 @@
 }</t>
   </si>
   <si>
-    <t>{'code': 5000, 'data': None, 'msg': '房号龙光317栋1005本次可结金额应为:0.00'}</t>
-  </si>
-  <si>
     <t>/commission/admin/pay/commission/ticket/start</t>
   </si>
   <si>
@@ -1208,9 +1205,6 @@
     "role":14,
     "uid":"${jszz_userid}"
 }</t>
-  </si>
-  <si>
-    <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
   </si>
   <si>
     <t>/commission/admin/pay/commission/ticket/check/done</t>
@@ -1279,6 +1273,9 @@
     "role":16,
     "uid":"${cw_userid}"
 }</t>
+  </si>
+  <si>
+    <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
   </si>
   <si>
     <t>/commission/admin/pay/commission/ticket/payed</t>
@@ -1531,148 +1528,76 @@
     <t>zc</t>
   </si>
   <si>
-    <t>b443db61e91c4fc29e53e02d81b88ac4</t>
-  </si>
-  <si>
-    <t>bdb03c03-2f9d-4947-9129-fd72637207b2</t>
-  </si>
-  <si>
     <t>驻场</t>
   </si>
   <si>
     <t>zcjl</t>
   </si>
   <si>
-    <t>794d9ba7b6e74c91a6e4ed678df7bb26</t>
-  </si>
-  <si>
-    <t>6d75fd3d-2b81-4b50-9089-c58df8e75c5b</t>
-  </si>
-  <si>
     <t>驻场经理</t>
   </si>
   <si>
     <t>cw</t>
   </si>
   <si>
-    <t>414198f624204ed28b1a63eabc5f8f1b</t>
-  </si>
-  <si>
-    <t>e88a5124-7155-4b7d-9d4c-a7feb4155fef</t>
-  </si>
-  <si>
     <t>财务</t>
   </si>
   <si>
     <t>jszy</t>
   </si>
   <si>
-    <t>3849f3a217034de19b4288d443aec1c3</t>
-  </si>
-  <si>
-    <t>4bfcc09e-086f-424c-a1cb-927110cc1bbe</t>
-  </si>
-  <si>
     <t>结算专员</t>
   </si>
   <si>
     <t>tz</t>
   </si>
   <si>
-    <t>52bc62c518e44f9095ff25f0f8b0250a</t>
-  </si>
-  <si>
-    <t>57452260-5594-48b2-a31e-844eefec99da</t>
-  </si>
-  <si>
     <t>拓展</t>
   </si>
   <si>
     <t>jszz</t>
   </si>
   <si>
-    <t>6692b0a974b24735907f666503d4102b</t>
-  </si>
-  <si>
-    <t>6e96eb70-771b-4e0b-bebc-5e4fbbc8ebd5</t>
-  </si>
-  <si>
     <t>结算组长</t>
   </si>
   <si>
     <t>qyz</t>
   </si>
   <si>
-    <t>169f34f4f67345d3b591c2ba62b5c720</t>
-  </si>
-  <si>
     <t>qyz_cookie</t>
   </si>
   <si>
-    <t>af11fe39-3b39-402c-810f-b67d6135ae4f</t>
-  </si>
-  <si>
     <t>区域总</t>
   </si>
   <si>
     <t>zjb</t>
   </si>
   <si>
-    <t>4e80f5cae98a42d6ac4e17036d125b85</t>
-  </si>
-  <si>
     <t>zjb_cookie</t>
   </si>
   <si>
-    <t>76d0d94b-25d5-4c7f-a977-02c7e8934e59</t>
-  </si>
-  <si>
     <t>总经办</t>
   </si>
   <si>
     <t>xftz</t>
   </si>
   <si>
-    <t>021930aed2b34180a50921370bb3c1a5</t>
-  </si>
-  <si>
-    <t>4432ef3c-a21d-4669-a12b-43263993d1d0</t>
-  </si>
-  <si>
     <t>销方拓展</t>
   </si>
   <si>
     <t>xfjszy</t>
   </si>
   <si>
-    <t>7914a23910cd45c8a843f463fd88b5fb</t>
-  </si>
-  <si>
-    <t>aa6073e6-8e05-4629-a3f3-febbf29fb4f1</t>
-  </si>
-  <si>
     <t>销方结算专员</t>
   </si>
   <si>
     <t>xfjszz</t>
   </si>
   <si>
-    <t>6f8bcbbecfd04f369fe12d4af0a1e8fa</t>
-  </si>
-  <si>
-    <t>ea82a845-c7c9-4e44-a446-4f41b2ad20d4</t>
-  </si>
-  <si>
     <t>销方结算组长</t>
   </si>
   <si>
     <t>xfcw</t>
-  </si>
-  <si>
-    <t>d10b7c18062044018d178822c359967c</t>
-  </si>
-  <si>
-    <t>55f59fb6-688f-4114-8ef7-d504d1c4916f</t>
   </si>
   <si>
     <t>销方财务</t>
@@ -2109,9 +2034,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2152,45 +2077,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2204,40 +2100,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2258,6 +2129,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2265,8 +2143,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2275,6 +2176,30 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2295,7 +2220,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2307,13 +2352,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2325,157 +2394,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2519,20 +2444,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2552,17 +2466,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2584,9 +2492,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2594,8 +2519,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2622,10 +2547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -2634,18 +2559,18 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2655,13 +2580,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
@@ -2670,97 +2595,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3311,7 +3236,7 @@
   <sheetPr/>
   <dimension ref="B1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -3323,26 +3248,26 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D1">
-        <v>1006</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="C3">
         <v>999</v>
@@ -3350,7 +3275,7 @@
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="C4">
         <v>31</v>
@@ -3358,42 +3283,42 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="C8">
         <v>5109</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C9">
         <v>4807</v>
@@ -3401,7 +3326,7 @@
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C10">
         <v>13729112152</v>
@@ -3439,7 +3364,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" ht="188" customHeight="1" spans="2:4">
@@ -3447,7 +3372,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -5010,10 +4935,10 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" ht="162" customHeight="1" spans="1:10">
@@ -5021,13 +4946,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>25</v>
@@ -5042,10 +4967,10 @@
         <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="73" customHeight="1" spans="1:10">
@@ -5053,13 +4978,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>25</v>
@@ -5074,10 +4999,10 @@
         <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="115.2" customHeight="1" spans="1:10">
@@ -5085,13 +5010,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>25</v>
@@ -5106,7 +5031,7 @@
         <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
@@ -5117,13 +5042,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>25</v>
@@ -5138,7 +5063,7 @@
         <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
@@ -5221,13 +5146,13 @@
         <v>109</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -5247,19 +5172,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -5279,19 +5204,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -5311,19 +5236,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -5343,19 +5268,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -5438,13 +5363,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>109</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>25</v>
@@ -5470,13 +5395,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>25</v>
@@ -5502,13 +5427,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>25</v>
@@ -5534,13 +5459,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>25</v>
@@ -5566,13 +5491,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>25</v>
@@ -5611,8 +5536,8 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -5622,26 +5547,27 @@
     <col min="3" max="3" width="36.1111111111111" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.4444444444444" style="1" customWidth="1"/>
     <col min="5" max="5" width="40.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1" spans="1:6">
       <c r="A1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>138</v>
       </c>
       <c r="D1" t="s">
         <v>28</v>
       </c>
       <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
         <v>139</v>
-      </c>
-      <c r="F1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:6">
@@ -5649,19 +5575,15 @@
         <v>13100000005</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>142</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>143</v>
-      </c>
+      <c r="E2" s="11"/>
       <c r="F2" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5669,19 +5591,15 @@
         <v>13100000003</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>146</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>147</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5689,19 +5607,15 @@
         <v>13100000009</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>150</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C4" s="10"/>
       <c r="D4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>151</v>
-      </c>
+      <c r="E4" s="11"/>
       <c r="F4" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5709,19 +5623,15 @@
         <v>13100000008</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>154</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C5" s="10"/>
       <c r="D5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>155</v>
-      </c>
+      <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5729,19 +5639,15 @@
         <v>13100000006</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>158</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C6" s="10"/>
       <c r="D6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>159</v>
-      </c>
+      <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5749,19 +5655,15 @@
         <v>13100000007</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>162</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C7" s="10"/>
       <c r="D7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>163</v>
-      </c>
+      <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5769,19 +5671,15 @@
         <v>13100000001</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>166</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C8" s="10"/>
       <c r="D8" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>168</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5789,19 +5687,15 @@
         <v>13100000002</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>171</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>173</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5809,19 +5703,15 @@
         <v>13600000006</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>176</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C10" s="10"/>
       <c r="D10" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>177</v>
-      </c>
+      <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5829,19 +5719,15 @@
         <v>13600000004</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>180</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C11" s="10"/>
       <c r="D11" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>181</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E11" s="11"/>
       <c r="F11" s="11" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5849,19 +5735,15 @@
         <v>13600000003</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>184</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C12" s="10"/>
       <c r="D12" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>185</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E12" s="11"/>
       <c r="F12" s="11" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5869,19 +5751,15 @@
         <v>13600000005</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>188</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C13" s="10"/>
       <c r="D13" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>189</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/purchase.xlsx
+++ b/test_data/purchase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22368" windowHeight="9420" tabRatio="705" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22368" windowHeight="9420" tabRatio="705" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="pay_ticket" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="xf_pay_ticket" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="platform_pay" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="data" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="check_out_ticket" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="data" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -64,9 +65,24 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -79,7 +95,75 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -94,7 +178,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -103,90 +188,6 @@
       <charset val="0"/>
       <color rgb="FF006100"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -199,7 +200,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,13 +338,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,133 +362,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,18 +384,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -390,6 +391,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -417,15 +442,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -443,26 +459,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,9 +483,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,10 +499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -510,16 +511,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
@@ -531,112 +532,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -657,14 +658,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment horizontal="center" vertical="center"/>
@@ -1300,8 +1301,8 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
@@ -1376,7 +1377,7 @@
           <t>/commission/app/pretrade/report/add</t>
         </is>
       </c>
-      <c r="C2" s="8" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>生成报备单</t>
         </is>
@@ -1426,7 +1427,7 @@
           <t>/commission/app/trade/purchase/first/submit</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>录入认购单</t>
         </is>
@@ -1452,7 +1453,7 @@
     "originalPrice":1040000,
     "purchasePrice":1050000,
     "signPrice":1060000,
-    "paymentMethod":"2",
+    "paymentMethod":"${paymentMethod}",
     "groupbuy":1,
     "groupbuyPlanId":${groupbuyPlanId},"ignoreSameRoomNo":false,
     "receivableGroupbuy":40000,
@@ -1496,7 +1497,7 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': {'actualPayCommission': None, 'additionEnroll': 0, 'agencyTrade': 'NOT_AGENCY_TRADE', 'agentId': '86d50b0e8aa045068e8755b7eb62a6cb', 'agentStatus': None, 'changeHouseDate': None, 'changeHouseProof': [], 'collectingCompanyId': None, 'commProjectId': 68, 'costs': None, 'createBy': '3f232aa91d334502aea0d9424d01481b', 'createTime': '2022-03-21 21:29:05', 'currentPayableActualCommission': None, 'customerId': 38949, 'customerName': '龙光317栋业主1014', 'customerPhone': '13729112152', 'departmentId': 4807, 'departmentName': '北京日益通速递有限责任公司2222', 'dissent': None, 'divisionId': 40, 'divisionName': '测试部', 'exchangeOrder': False, 'faceSignDate': None, 'faceSignProof': [], 'finalAuditApproved': False, 'grossProfit': None, 'groupbuy': 1, 'groupbuyPayer': None, 'groupbuyPlanId': 10, 'groupbuyProof': [{'name': '599dae3c07fb416cbb55c63cb4f368de.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/599dae3c07fb416cbb55c63cb4f368de.jpeg'}], 'groupbuyRecieveDate': None, 'groupbuyRecieveId': None, 'groupbuyRecieveProof': [], 'groupbuyStatus': None, 'initialSignDate': None, 'initialSignProof': [], 'loanDate': None, 'loanProof': [], 'netProfits': None, 'netSignDate': None, 'netSignProof': [], 'normalStat': True, 'notAgencyTrade': True, 'originId': 0, 'originalPrice': 1040000, 'pay': None, 'payAdjustCommission': None, 'payAdjustMoney': None, 'payCaseDesc': '平台/门店结佣方案', 'payCaseDescribe': '平台/门店结佣方案', 'payCommPlanId': 206, 'payPlanId': 206, 'payStatus': None, 'payableCommission': 83000.0, 'payableCommissionProof': [], 'payableMoney': 83000.0, 'payedCommission': None, 'paymentMethod': 2, 'paymentMethodDesc': '按揭付款', 'platformDeptName': '北京日益通速递有限责任公司2222', 'platformId': 999, 'platformPayAdjustCommission': None, 'platformPayCaseDescribe': None, 'platformPayCommPlanId': None, 'platformPayableCommission': None, 'platformPayableCommissionProof': [], 'prepay': 1, 'prepayCommission': None, 'projectAgencyOrder': False, 'projectAgencyTrade': False, 'projectId': 31, 'projectName': '华发四季1', 'projectPlatformId': 999, 'projectPlatformName': '中山云经纪', 'purchaseCode': 'RG2022032133237305', 'purchaseDate': '2022-03-14', 'purchaseOrderType': 'NORMAL', 'purchasePrice': 1050000, 'purchaseProof': [{'name': 'cb86f751782446cd8aeb18fa8cc5c15c.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/cb86f751782446cd8aeb18fa8cc5c15c.jpeg'}], 'reAdjustCommision': None, 'realReceiveGroupbuy': 0, 'recCaseDescribe': None, 'recCommPlanId': None, 'recStatus': None, 'recStatusDesc': None, 'receivableCommision': 0, 'receivableCommissionProof': [], 'receivableGroupbuy': 40000, 'receiveGroupbuy': 40000, 'receivedCommission': None, 'recheckApproved': None, 'remark': '调接口生成认购单', 'reportId': 44536, 'reportTime': '2022-03-14 12:41:00', 'returnHouseDate': None, 'returnHouseProof': [], 'returnOrChangeStage': False, 'revenue': None, 'roomArea': '104.00', 'roomNo': '龙光317栋1014', 'saleAgencyTrade': False, 'salePlatformId': 999, 'salePlatformName': '中山云经纪', 'salePlatformOrDepartment': '北京日益通速递有限责任公司2222', 'salePlatformOrDepartmentId': 4807, 'salePurchaseOrderId': 0, 'saleRecCommPlanId': None, 'settlePrice': 1060000, 'settlePriceProof': [], 'signPrice': 1060000, 'stage': 3, 'stageDesc': '认购', 'stageFromStatus': 3, 'stageState': None, 'status': 2, 'statusDesc': '认购初审中', 'totalReceivableCommission': 0, 'tradeConfirmDate': None, 'tradeId': 3258, 'unPayedCommission': None, 'unReceivedCommission': None, 'updateBy': '3f232aa91d334502aea0d9424d01481b', 'updateTime': '2022-03-21 21:29:05', 'validRecCommPlanId': None, 'visitTime': '2022-03-14 12:42:00', 'voucherDepartmentPay': None, 'voucherId': None, 'voucherPay': None}, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 2000, 'data': {'actualPayCommission': None, 'additionEnroll': 0, 'agencyTrade': 'NOT_AGENCY_TRADE', 'agentId': '86d50b0e8aa045068e8755b7eb62a6cb', 'agentStatus': None, 'changeHouseDate': None, 'changeHouseProof': [], 'collectingCompanyId': None, 'commProjectId': 68, 'costs': None, 'createBy': '3f232aa91d334502aea0d9424d01481b', 'createTime': '2022-03-24 17:26:20', 'currentPayableActualCommission': None, 'customerId': 39021, 'customerName': '龙光323栋业主1027', 'customerPhone': '13729112152', 'departmentId': 4807, 'departmentName': '北京日益通速递有限责任公司2222', 'dissent': None, 'divisionId': 40, 'divisionName': '测试部', 'exchangeOrder': False, 'faceSignDate': None, 'faceSignProof': [], 'finalAuditApproved': False, 'grossProfit': None, 'groupbuy': 1, 'groupbuyPayer': None, 'groupbuyPlanId': 10, 'groupbuyProof': [{'name': '599dae3c07fb416cbb55c63cb4f368de.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/599dae3c07fb416cbb55c63cb4f368de.jpeg'}], 'groupbuyRecieveDate': None, 'groupbuyRecieveId': None, 'groupbuyRecieveProof': [], 'groupbuyStatus': None, 'initialSignDate': None, 'initialSignProof': [], 'loanDate': None, 'loanProof': [], 'netProfits': None, 'netSignDate': None, 'netSignProof': [], 'normalStat': True, 'notAgencyTrade': True, 'oldTradeId': 0, 'originId': 0, 'originalPrice': 1040000, 'pay': None, 'payAdjustCommission': None, 'payAdjustMoney': None, 'payCaseDesc': '平台/门店结佣方案', 'payCaseDescribe': '平台/门店结佣方案', 'payCommPlanId': 206, 'payPlanId': 206, 'payStatus': None, 'payableCommission': 83000.0, 'payableCommissionProof': [], 'payableMoney': 83000.0, 'payedCommission': None, 'paymentMethod': 1, 'paymentMethodDesc': '一次性付款', 'platformDeptName': '北京日益通速递有限责任公司2222', 'platformId': 999, 'platformPayAdjustCommission': None, 'platformPayCaseDescribe': None, 'platformPayCommPlanId': None, 'platformPayableCommission': None, 'platformPayableCommissionProof': [], 'prepay': 1, 'prepayCommission': None, 'projectAgencyOrder': False, 'projectAgencyTrade': False, 'projectId': 31, 'projectName': '华发四季1', 'projectPlatformId': 999, 'projectPlatformName': '中山云经纪', 'purchaseCode': 'RG2022032433171881', 'purchaseDate': '2022-03-23', 'purchaseOrderType': 'NORMAL', 'purchasePrice': 1050000, 'purchaseProof': [{'name': 'cb86f751782446cd8aeb18fa8cc5c15c.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/cb86f751782446cd8aeb18fa8cc5c15c.jpeg'}], 'reAdjustCommision': None, 'realReceiveGroupbuy': 0, 'recCaseDescribe': None, 'recCommPlanId': None, 'recStatus': None, 'recStatusDesc': None, 'receivableCommision': 0, 'receivableCommissionProof': [], 'receivableGroupbuy': 40000, 'receiveGroupbuy': 40000, 'receivedCommission': None, 'recheckApproved': None, 'remark': '调接口生成认购单', 'reportId': 44569, 'reportTime': '2022-03-23 12:41:00', 'returnHouseDate': None, 'returnHouseProof': [], 'returnOrChangeStage': False, 'revenue': None, 'roomArea': '104.00', 'roomNo': '龙光323栋1027', 'saleAgencyTrade': False, 'salePlatformId': 999, 'salePlatformName': '中山云经纪', 'salePlatformOrDepartment': '北京日益通速递有限责任公司2222', 'salePlatformOrDepartmentId': 4807, 'salePurchaseOrderId': 0, 'saleRecCommPlanId': None, 'settlePrice': 1060000, 'settlePriceProof': [], 'signPrice': 1060000, 'stage': 3, 'stageDesc': '认购', 'stageFromStatus': 3, 'stageState': None, 'status': 2, 'statusDesc': '认购初审中', 'totalReceivableCommission': 0, 'tradeConfirmDate': None, 'tradeId': 3311, 'unPayedCommission': None, 'unReceivedCommission': None, 'updateBy': '3f232aa91d334502aea0d9424d01481b', 'updateTime': '2022-03-24 17:26:20', 'validRecCommPlanId': None, 'visitTime': '2022-03-23 12:42:00', 'voucherDepartmentPay': None, 'voucherId': None, 'voucherPay': None}, 'msg': 'SUCCESS'}</t>
         </is>
       </c>
       <c r="J3" s="0" t="inlineStr">
@@ -1514,7 +1515,7 @@
           <t>/commission/app/order/cut/detail/get</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>查看驻场提成</t>
         </is>
@@ -1564,7 +1565,7 @@
           <t>/commission/app/trade/first/approve</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>认购初审通过</t>
         </is>
@@ -1862,7 +1863,7 @@
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '07b2f4006d64437ebaf6cbf5849320e2', 'userName': '拓展real'}, {'cutAmount': None, 'divisionName': None, 'number': 2, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': 0.1, 'superiorCutAmount': 0.0, 'superiorId': '3e03b5451e0c4b4f8618874f269a814a', 'superiorName': '拓展经理real', 'superiorPayedCut': 0.0, 'superiorRoleName': '拓展经理', 'superiorSuperiorCutAmount': 0.0, 'superiorSuperiorId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'superiorSuperiorName': '区域总real', 'superiorSuperiorPayedCut': 0.0, 'superiorSuperiorRoleName': '拓展总监'}, {'number': 2, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 1, 'fixedAmount': None, 'standRatioDtos': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.5, 'userId': '3f232aa91d334502aea0d9424d01481b', 'userName': '驻场经理real1'}, {'cutAmount': 0.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.3, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': 0.0, 'divisionName': 'APP推送测试', 'number': 3, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '729e2f29f8a74724a6baa03f22991e45', 'userName': '驻场经理1'}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 0.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 0.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 0.5}, 'lineCutDone': 0, 'revenue': 0.0}, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '07b2f4006d64437ebaf6cbf5849320e2', 'userName': '拓展real'}, {'cutAmount': None, 'divisionName': None, 'number': 2, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': 0.1, 'superiorCutAmount': 0.0, 'superiorId': '3e03b5451e0c4b4f8618874f269a814a', 'superiorName': '拓展经理real', 'superiorPayedCut': 0.0, 'superiorRoleName': '拓展经理', 'superiorSuperiorCutAmount': 0.0, 'superiorSuperiorId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'superiorSuperiorName': '区域总real', 'superiorSuperiorPayedCut': 0.0, 'superiorSuperiorRoleName': '拓展总监'}, {'number': 2, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 1, 'fixedAmount': 0.0, 'standRatioDtos': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.5, 'userId': '3f232aa91d334502aea0d9424d01481b', 'userName': '驻场经理real1'}, {'cutAmount': 0.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.3, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': 0.0, 'divisionName': 'APP推送测试', 'number': 3, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '729e2f29f8a74724a6baa03f22991e45', 'userName': '驻场经理1'}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 0.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 0.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 0.5}, 'lineCutDone': 0, 'revenue': 0.0}, 'msg': 'SUCCESS'}</t>
         </is>
       </c>
       <c r="J9" s="0" t="inlineStr">
@@ -2418,12 +2419,12 @@
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '已面签或(已网签且是按揭付款且无面签)才需要进行添加放款信息'}</t>
         </is>
       </c>
       <c r="J15" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2528,7 @@
           <t>/commission/app/pretrade/report/add</t>
         </is>
       </c>
-      <c r="C2" s="8" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>生成报备单</t>
         </is>
@@ -2577,12 +2578,12 @@
           <t>/commission/app/trade/purchase/first/submit</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>录入认购单</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="8" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2647,7 +2648,7 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': {'actualPayCommission': None, 'additionEnroll': 0, 'agencyTrade': 'PROJECT_AGENCY_TRADE', 'agentId': '86d50b0e8aa045068e8755b7eb62a6cb', 'agentStatus': None, 'changeHouseDate': None, 'changeHouseProof': [], 'collectingCompanyId': None, 'commProjectId': 68, 'costs': None, 'createBy': '3f232aa91d334502aea0d9424d01481b', 'createTime': '2022-03-21 22:03:46', 'currentPayableActualCommission': None, 'customerId': 38961, 'customerName': '龙光317栋业主1016', 'customerPhone': '13729112152', 'departmentId': 4807, 'departmentName': '北京日益通速递有限责任公司2222', 'dissent': None, 'divisionId': 40, 'divisionName': '测试部', 'exchangeOrder': False, 'faceSignDate': None, 'faceSignProof': [], 'finalAuditApproved': False, 'grossProfit': None, 'groupbuy': 1, 'groupbuyPayer': None, 'groupbuyPlanId': 10, 'groupbuyProof': [{'name': '599dae3c07fb416cbb55c63cb4f368de.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/599dae3c07fb416cbb55c63cb4f368de.jpeg'}], 'groupbuyRecieveDate': None, 'groupbuyRecieveId': None, 'groupbuyRecieveProof': [], 'groupbuyStatus': None, 'initialSignDate': None, 'initialSignProof': [], 'loanDate': None, 'loanProof': [], 'netProfits': None, 'netSignDate': None, 'netSignProof': [], 'normalStat': True, 'notAgencyTrade': False, 'originId': 0, 'originalPrice': 1040000, 'pay': None, 'payAdjustCommission': None, 'payAdjustMoney': None, 'payCaseDesc': None, 'payCaseDescribe': '平台/门店结佣方案', 'payCommPlanId': 206, 'payPlanId': None, 'payStatus': None, 'payableCommission': 83000.0, 'payableCommissionProof': [], 'payableMoney': None, 'payedCommission': None, 'paymentMethod': 2, 'paymentMethodDesc': '按揭付款', 'platformDeptName': '惠州云经纪', 'platformId': 999, 'platformPayAdjustCommission': None, 'platformPayCaseDescribe': None, 'platformPayCommPlanId': None, 'platformPayableCommission': None, 'platformPayableCommissionProof': [], 'prepay': 0, 'prepayCommission': None, 'projectAgencyOrder': True, 'projectAgencyTrade': True, 'projectId': 31, 'projectName': '华发四季1', 'projectPlatformId': 999, 'projectPlatformName': '中山云经纪', 'purchaseCode': 'RG2022032137347897', 'purchaseDate': '2022-03-14', 'purchaseOrderType': 'NORMAL', 'purchasePrice': 1050000, 'purchaseProof': [{'name': 'cb86f751782446cd8aeb18fa8cc5c15c.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/cb86f751782446cd8aeb18fa8cc5c15c.jpeg'}], 'reAdjustCommision': None, 'realReceiveGroupbuy': 0, 'recCaseDescribe': None, 'recCommPlanId': None, 'recStatus': None, 'recStatusDesc': None, 'receivableCommision': 0, 'receivableCommissionProof': [], 'receivableGroupbuy': 40000, 'receiveGroupbuy': 40000, 'receivedCommission': None, 'recheckApproved': None, 'remark': '调接口生成认购单', 'reportId': 44542, 'reportTime': '2022-03-14 12:41:00', 'returnHouseDate': None, 'returnHouseProof': [], 'returnOrChangeStage': False, 'revenue': None, 'roomArea': '104.00', 'roomNo': '龙光317栋1016', 'saleAgencyTrade': False, 'salePlatformId': 5109, 'salePlatformName': '惠州云经纪', 'salePlatformOrDepartment': '惠州云经纪', 'salePlatformOrDepartmentId': 5109, 'salePurchaseOrderId': 0, 'saleRecCommPlanId': None, 'settlePrice': 1060000, 'settlePriceProof': [], 'signPrice': 1060000, 'stage': 3, 'stageDesc': '认购', 'stageFromStatus': 3, 'stageState': None, 'status': 2, 'statusDesc': '认购初审中', 'totalReceivableCommission': 0, 'tradeConfirmDate': None, 'tradeId': 3266, 'unPayedCommission': None, 'unReceivedCommission': None, 'updateBy': '3f232aa91d334502aea0d9424d01481b', 'updateTime': '2022-03-21 22:03:46', 'validRecCommPlanId': None, 'visitTime': '2022-03-14 12:42:00', 'voucherDepartmentPay': None, 'voucherId': None, 'voucherPay': None}, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 2000, 'data': {'actualPayCommission': None, 'additionEnroll': 0, 'agencyTrade': 'PROJECT_AGENCY_TRADE', 'agentId': '86d50b0e8aa045068e8755b7eb62a6cb', 'agentStatus': None, 'changeHouseDate': None, 'changeHouseProof': [], 'collectingCompanyId': None, 'commProjectId': 68, 'costs': None, 'createBy': '3f232aa91d334502aea0d9424d01481b', 'createTime': '2022-03-24 18:39:12', 'currentPayableActualCommission': None, 'customerId': 39023, 'customerName': '龙光323栋业主1028', 'customerPhone': '13729112152', 'departmentId': 4807, 'departmentName': '北京日益通速递有限责任公司2222', 'dissent': None, 'divisionId': 40, 'divisionName': '测试部', 'exchangeOrder': False, 'faceSignDate': None, 'faceSignProof': [], 'finalAuditApproved': False, 'grossProfit': None, 'groupbuy': 1, 'groupbuyPayer': None, 'groupbuyPlanId': 10, 'groupbuyProof': [{'name': '599dae3c07fb416cbb55c63cb4f368de.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/599dae3c07fb416cbb55c63cb4f368de.jpeg'}], 'groupbuyRecieveDate': None, 'groupbuyRecieveId': None, 'groupbuyRecieveProof': [], 'groupbuyStatus': None, 'initialSignDate': None, 'initialSignProof': [], 'loanDate': None, 'loanProof': [], 'netProfits': None, 'netSignDate': None, 'netSignProof': [], 'normalStat': True, 'notAgencyTrade': False, 'oldTradeId': 0, 'originId': 0, 'originalPrice': 1040000, 'pay': None, 'payAdjustCommission': None, 'payAdjustMoney': None, 'payCaseDesc': None, 'payCaseDescribe': '平台/门店结佣方案', 'payCommPlanId': 206, 'payPlanId': None, 'payStatus': None, 'payableCommission': 83000.0, 'payableCommissionProof': [], 'payableMoney': None, 'payedCommission': None, 'paymentMethod': 2, 'paymentMethodDesc': '按揭付款', 'platformDeptName': '惠州云经纪', 'platformId': 999, 'platformPayAdjustCommission': None, 'platformPayCaseDescribe': None, 'platformPayCommPlanId': None, 'platformPayableCommission': None, 'platformPayableCommissionProof': [], 'prepay': 0, 'prepayCommission': None, 'projectAgencyOrder': True, 'projectAgencyTrade': True, 'projectId': 31, 'projectName': '华发四季1', 'projectPlatformId': 999, 'projectPlatformName': '中山云经纪', 'purchaseCode': 'RG2022032433172137', 'purchaseDate': '2022-03-23', 'purchaseOrderType': 'NORMAL', 'purchasePrice': 1050000, 'purchaseProof': [{'name': 'cb86f751782446cd8aeb18fa8cc5c15c.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/cb86f751782446cd8aeb18fa8cc5c15c.jpeg'}], 'reAdjustCommision': None, 'realReceiveGroupbuy': 0, 'recCaseDescribe': None, 'recCommPlanId': None, 'recStatus': None, 'recStatusDesc': None, 'receivableCommision': 0, 'receivableCommissionProof': [], 'receivableGroupbuy': 40000, 'receiveGroupbuy': 40000, 'receivedCommission': None, 'recheckApproved': None, 'remark': '调接口生成认购单', 'reportId': 44570, 'reportTime': '2022-03-23 12:41:00', 'returnHouseDate': None, 'returnHouseProof': [], 'returnOrChangeStage': False, 'revenue': None, 'roomArea': '104.00', 'roomNo': '龙光323栋1028', 'saleAgencyTrade': False, 'salePlatformId': 5109, 'salePlatformName': '惠州云经纪', 'salePlatformOrDepartment': '惠州云经纪', 'salePlatformOrDepartmentId': 5109, 'salePurchaseOrderId': 0, 'saleRecCommPlanId': None, 'settlePrice': 1060000, 'settlePriceProof': [], 'signPrice': 1060000, 'stage': 3, 'stageDesc': '认购', 'stageFromStatus': 3, 'stageState': None, 'status': 2, 'statusDesc': '认购初审中', 'totalReceivableCommission': 0, 'tradeConfirmDate': None, 'tradeId': 3312, 'unPayedCommission': None, 'unReceivedCommission': None, 'updateBy': '3f232aa91d334502aea0d9424d01481b', 'updateTime': '2022-03-24 18:39:12', 'validRecCommPlanId': None, 'visitTime': '2022-03-23 12:42:00', 'voucherDepartmentPay': None, 'voucherId': None, 'voucherPay': None}, 'msg': 'SUCCESS'}</t>
         </is>
       </c>
       <c r="J3" s="0" t="inlineStr">
@@ -2665,7 +2666,7 @@
           <t>/commission/app/order/cut/detail/get</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>查看驻场提成</t>
         </is>
@@ -2720,7 +2721,7 @@
           <t>认购初审通过</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2792,7 +2793,7 @@
           <t>团购审核通过</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
+      <c r="D6" s="8" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2861,7 +2862,7 @@
           <t>认购复审通过</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2927,7 +2928,7 @@
           <t>拓展审核通过</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -3015,7 +3016,7 @@
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': None, 'divisionName': None, 'number': 1, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 2, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 2, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 1, 'fixedAmount': None, 'standRatioDtos': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.5, 'userId': '3f232aa91d334502aea0d9424d01481b', 'userName': '驻场经理real1'}, {'cutAmount': 0.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.3, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': 0.0, 'divisionName': 'APP推送测试', 'number': 3, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '729e2f29f8a74724a6baa03f22991e45', 'userName': '驻场经理1'}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 0.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 0.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 0.5}, 'lineCutDone': 0, 'revenue': 0.0}, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': None, 'divisionName': None, 'number': 1, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 2, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 2, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 1, 'fixedAmount': 0.0, 'standRatioDtos': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.5, 'userId': '3f232aa91d334502aea0d9424d01481b', 'userName': '驻场经理real1'}, {'cutAmount': 0.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.3, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': 0.0, 'divisionName': 'APP推送测试', 'number': 3, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '729e2f29f8a74724a6baa03f22991e45', 'userName': '驻场经理1'}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 0.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 0.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 0.5}, 'lineCutDone': 0, 'revenue': 0.0}, 'msg': 'SUCCESS'}</t>
         </is>
       </c>
       <c r="J9" s="0" t="inlineStr">
@@ -3038,7 +3039,7 @@
           <t>终审通过</t>
         </is>
       </c>
-      <c r="D10" s="7" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -3308,7 +3309,7 @@
           <t>添加草签</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -3376,7 +3377,7 @@
           <t>草签审核通过</t>
         </is>
       </c>
-      <c r="D12" s="7" t="inlineStr">
+      <c r="D12" s="8" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -3437,7 +3438,7 @@
           <t>添加网签</t>
         </is>
       </c>
-      <c r="D13" s="7" t="inlineStr">
+      <c r="D13" s="8" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -3504,7 +3505,7 @@
           <t>网签审核通过</t>
         </is>
       </c>
-      <c r="D14" s="7" t="inlineStr">
+      <c r="D14" s="8" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -3564,7 +3565,7 @@
           <t>添加放款</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
+      <c r="D15" s="8" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -3760,7 +3761,7 @@
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t>jszy_cookie</t>
         </is>
@@ -3829,7 +3830,7 @@
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F3" s="6" t="inlineStr">
+      <c r="F3" s="7" t="inlineStr">
         <is>
           <t>jszy_cookie</t>
         </is>
@@ -3869,7 +3870,7 @@
           <t>对佣调整中审核通过</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D4" s="8" t="inlineStr">
         <is>
           <t>{
     "adjustOrders":false,
@@ -3903,7 +3904,7 @@
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F4" s="7" t="inlineStr">
         <is>
           <t>jszy_cookie</t>
         </is>
@@ -3943,7 +3944,7 @@
           <t>待申请开票</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t>{
     "ticketId":"${rec_ticketId}",
@@ -3982,7 +3983,7 @@
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F5" s="6" t="inlineStr">
+      <c r="F5" s="7" t="inlineStr">
         <is>
           <t>jszy_cookie</t>
         </is>
@@ -4022,7 +4023,7 @@
           <t>确认开票</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
+      <c r="D6" s="8" t="inlineStr">
         <is>
           <t>{
     "ticketId":"${rec_ticketId}",
@@ -4048,7 +4049,7 @@
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="7" t="inlineStr">
         <is>
           <t>cw_cookie</t>
         </is>
@@ -4088,7 +4089,7 @@
           <t>收票</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 {
@@ -4113,7 +4114,7 @@
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F7" s="6" t="inlineStr">
+      <c r="F7" s="7" t="inlineStr">
         <is>
           <t>jszy_cookie</t>
         </is>
@@ -4153,7 +4154,7 @@
           <t>收款中</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>{
     "ticketId":"${rec_ticketId}",
@@ -4227,7 +4228,7 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -5256,12 +5257,12 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '房号龙光323栋1028已收佣金金额应为:0'}</t>
         </is>
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -5313,12 +5314,12 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J3" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -5397,12 +5398,12 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J4" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -5463,12 +5464,12 @@
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J5" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -5528,12 +5529,12 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J6" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -5550,6 +5551,213 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <cols>
+    <col width="45.3333333333333" customWidth="1" style="1" min="2" max="2"/>
+    <col width="18.2222222222222" customWidth="1" style="5" min="3" max="3"/>
+    <col width="53.5555555555556" customWidth="1" style="1" min="4" max="4"/>
+    <col width="40.8888888888889" customWidth="1" style="1" min="5" max="5"/>
+    <col width="14.6666666666667" customWidth="1" style="1" min="6" max="6"/>
+    <col width="12.3333333333333" customWidth="1" style="1" min="7" max="7"/>
+    <col width="16" customWidth="1" style="1" min="8" max="8"/>
+    <col width="25" customWidth="1" style="1" min="9" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>tittle</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>headers</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>role_cookie</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>assert_info</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>conf_done</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="100" customHeight="1" s="1">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>/commission//app/trade/checkOut/apply</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>申请退房</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "cityId":306,
+    "platformId":${salePlatformId},
+    "system":"android",
+    "model":"phone",
+    "appId":"commission",
+    "uid":"${zc_userid}",
+    "departmentId":${salePlatformId},
+    "tradeId":${tradeId},
+    "remark":"退房",
+    "returnHouseDate":"${purchaseDate}",
+    "returnHouseProof":[
+        {       "url":"https://picos.wyzfang.com/pre/java/2022-2/4fdde3b659874dafa42d7f5fc88f68be.jpeg",
+            "name":"4fdde3b659874dafa42d7f5fc88f68be.jpeg"
+        }
+    ]
+}</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>zc_cookie</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="102" customHeight="1" s="1">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>/commission/app/trade/checkOut/first/approve</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>退房初审通过</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "cityId":306,
+    "platformId":${salePlatformId},
+    "system":"android",
+    "model":"phone",
+    "appId":"commission",
+    "uid":"${zcjl_userid}",
+    "departmentId":${salePlatformId},
+    "tradeId":${tradeId},
+    "remark":""
+}</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>zcjl_cookie</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/test_data/purchase.xlsx
+++ b/test_data/purchase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22368" windowHeight="9420" tabRatio="705" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22368" windowHeight="9420" tabRatio="705" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -71,6 +71,43 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -88,21 +125,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -116,7 +139,16 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -138,25 +170,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,21 +190,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -200,7 +200,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,175 +374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,11 +394,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -414,6 +420,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,24 +450,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,17 +491,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -499,10 +499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -511,16 +511,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
@@ -532,112 +532,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1299,10 +1299,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': {'actualPayCommission': None, 'additionEnroll': 0, 'agencyTrade': 'NOT_AGENCY_TRADE', 'agentId': '86d50b0e8aa045068e8755b7eb62a6cb', 'agentStatus': None, 'changeHouseDate': None, 'changeHouseProof': [], 'collectingCompanyId': None, 'commProjectId': 68, 'costs': None, 'createBy': '3f232aa91d334502aea0d9424d01481b', 'createTime': '2022-03-24 17:26:20', 'currentPayableActualCommission': None, 'customerId': 39021, 'customerName': '龙光323栋业主1027', 'customerPhone': '13729112152', 'departmentId': 4807, 'departmentName': '北京日益通速递有限责任公司2222', 'dissent': None, 'divisionId': 40, 'divisionName': '测试部', 'exchangeOrder': False, 'faceSignDate': None, 'faceSignProof': [], 'finalAuditApproved': False, 'grossProfit': None, 'groupbuy': 1, 'groupbuyPayer': None, 'groupbuyPlanId': 10, 'groupbuyProof': [{'name': '599dae3c07fb416cbb55c63cb4f368de.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/599dae3c07fb416cbb55c63cb4f368de.jpeg'}], 'groupbuyRecieveDate': None, 'groupbuyRecieveId': None, 'groupbuyRecieveProof': [], 'groupbuyStatus': None, 'initialSignDate': None, 'initialSignProof': [], 'loanDate': None, 'loanProof': [], 'netProfits': None, 'netSignDate': None, 'netSignProof': [], 'normalStat': True, 'notAgencyTrade': True, 'oldTradeId': 0, 'originId': 0, 'originalPrice': 1040000, 'pay': None, 'payAdjustCommission': None, 'payAdjustMoney': None, 'payCaseDesc': '平台/门店结佣方案', 'payCaseDescribe': '平台/门店结佣方案', 'payCommPlanId': 206, 'payPlanId': 206, 'payStatus': None, 'payableCommission': 83000.0, 'payableCommissionProof': [], 'payableMoney': 83000.0, 'payedCommission': None, 'paymentMethod': 1, 'paymentMethodDesc': '一次性付款', 'platformDeptName': '北京日益通速递有限责任公司2222', 'platformId': 999, 'platformPayAdjustCommission': None, 'platformPayCaseDescribe': None, 'platformPayCommPlanId': None, 'platformPayableCommission': None, 'platformPayableCommissionProof': [], 'prepay': 1, 'prepayCommission': None, 'projectAgencyOrder': False, 'projectAgencyTrade': False, 'projectId': 31, 'projectName': '华发四季1', 'projectPlatformId': 999, 'projectPlatformName': '中山云经纪', 'purchaseCode': 'RG2022032433171881', 'purchaseDate': '2022-03-23', 'purchaseOrderType': 'NORMAL', 'purchasePrice': 1050000, 'purchaseProof': [{'name': 'cb86f751782446cd8aeb18fa8cc5c15c.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/cb86f751782446cd8aeb18fa8cc5c15c.jpeg'}], 'reAdjustCommision': None, 'realReceiveGroupbuy': 0, 'recCaseDescribe': None, 'recCommPlanId': None, 'recStatus': None, 'recStatusDesc': None, 'receivableCommision': 0, 'receivableCommissionProof': [], 'receivableGroupbuy': 40000, 'receiveGroupbuy': 40000, 'receivedCommission': None, 'recheckApproved': None, 'remark': '调接口生成认购单', 'reportId': 44569, 'reportTime': '2022-03-23 12:41:00', 'returnHouseDate': None, 'returnHouseProof': [], 'returnOrChangeStage': False, 'revenue': None, 'roomArea': '104.00', 'roomNo': '龙光323栋1027', 'saleAgencyTrade': False, 'salePlatformId': 999, 'salePlatformName': '中山云经纪', 'salePlatformOrDepartment': '北京日益通速递有限责任公司2222', 'salePlatformOrDepartmentId': 4807, 'salePurchaseOrderId': 0, 'saleRecCommPlanId': None, 'settlePrice': 1060000, 'settlePriceProof': [], 'signPrice': 1060000, 'stage': 3, 'stageDesc': '认购', 'stageFromStatus': 3, 'stageState': None, 'status': 2, 'statusDesc': '认购初审中', 'totalReceivableCommission': 0, 'tradeConfirmDate': None, 'tradeId': 3311, 'unPayedCommission': None, 'unReceivedCommission': None, 'updateBy': '3f232aa91d334502aea0d9424d01481b', 'updateTime': '2022-03-24 17:26:20', 'validRecCommPlanId': None, 'visitTime': '2022-03-23 12:42:00', 'voucherDepartmentPay': None, 'voucherId': None, 'voucherPay': None}, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 2000, 'data': {'actualPayCommission': None, 'additionEnroll': 0, 'agencyTrade': 'NOT_AGENCY_TRADE', 'agentId': '86d50b0e8aa045068e8755b7eb62a6cb', 'agentStatus': None, 'changeHouseDate': None, 'changeHouseProof': [], 'collectingCompanyId': None, 'commProjectId': 68, 'costs': None, 'createBy': '3f232aa91d334502aea0d9424d01481b', 'createTime': '2022-03-31 18:25:45', 'currentPayableActualCommission': None, 'customerId': 39320, 'customerName': '华发331栋业主3018', 'customerPhone': '13729112152', 'departmentId': 4807, 'departmentName': '北京日益通速递有限责任公司2222', 'dissent': None, 'divisionId': 40, 'divisionName': '测试部', 'exchangeOrder': False, 'faceSignDate': None, 'faceSignProof': [], 'finalAuditApproved': False, 'grossProfit': None, 'groupbuy': 1, 'groupbuyPayer': None, 'groupbuyPlanId': 10, 'groupbuyProof': [{'name': '599dae3c07fb416cbb55c63cb4f368de.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/599dae3c07fb416cbb55c63cb4f368de.jpeg'}], 'groupbuyRecieveDate': None, 'groupbuyRecieveId': None, 'groupbuyRecieveProof': [], 'groupbuyStatus': None, 'initialSignDate': None, 'initialSignProof': [], 'loanDate': None, 'loanProof': [], 'netProfits': None, 'netSignDate': None, 'netSignProof': [], 'normalStat': True, 'notAgencyTrade': True, 'oldTradeId': 0, 'originId': 0, 'originalPrice': 1040000, 'pay': None, 'payAdjustCommission': None, 'payAdjustMoney': None, 'payCaseDesc': '平台/门店结佣方案', 'payCaseDescribe': '平台/门店结佣方案', 'payCommPlanId': 206, 'payPlanId': 206, 'payStatus': None, 'payableCommission': 83000.0, 'payableCommissionProof': [], 'payableMoney': 83000.0, 'payedCommission': None, 'paymentMethod': 2, 'paymentMethodDesc': '按揭付款', 'platformDeptName': '北京日益通速递有限责任公司2222', 'platformId': 999, 'platformPayAdjustCommission': None, 'platformPayCaseDescribe': None, 'platformPayCommPlanId': None, 'platformPayableCommission': None, 'platformPayableCommissionProof': [], 'prepay': 1, 'prepayCommission': None, 'projectAgencyOrder': False, 'projectAgencyTrade': False, 'projectId': 31, 'projectName': '华发四季1', 'projectPlatformId': 999, 'projectPlatformName': '中山云经纪', 'purchaseCode': 'RG2022033133227032', 'purchaseDate': '2022-03-31', 'purchaseOrderType': 'NORMAL', 'purchasePrice': 1050000, 'purchaseProof': [{'name': 'cb86f751782446cd8aeb18fa8cc5c15c.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/cb86f751782446cd8aeb18fa8cc5c15c.jpeg'}], 'reAdjustCommision': None, 'realReceiveGroupbuy': 0, 'recCaseDescribe': None, 'recCommPlanId': None, 'recStatus': None, 'recStatusDesc': None, 'receivableCommision': 0, 'receivableCommissionProof': [], 'receivableGroupbuy': 40000, 'receiveGroupbuy': 40000, 'receivedCommission': None, 'recheckApproved': None, 'remark': '调接口生成认购单', 'reportId': 44708, 'reportTime': '2022-03-31 12:41:00', 'returnHouseDate': None, 'returnHouseProof': [], 'returnOrChangeStage': False, 'revenue': None, 'roomArea': '104.00', 'roomNo': '华发331栋3018', 'saleAgencyTrade': False, 'salePlatformId': 999, 'salePlatformName': '中山云经纪', 'salePlatformOrDepartment': '北京日益通速递有限责任公司2222', 'salePlatformOrDepartmentId': 4807, 'salePurchaseOrderId': 0, 'saleRecCommPlanId': None, 'settlePrice': 1060000, 'settlePriceProof': [], 'signPrice': 1060000, 'stage': 3, 'stageDesc': '认购', 'stageFromStatus': 3, 'stageState': None, 'status': 2, 'statusDesc': '认购初审中', 'totalReceivableCommission': 0, 'tradeConfirmDate': None, 'tradeId': 3519, 'unPayedCommission': None, 'unReceivedCommission': None, 'updateBy': '3f232aa91d334502aea0d9424d01481b', 'updateTime': '2022-03-31 18:25:45', 'validRecCommPlanId': None, 'visitTime': '2022-03-31 12:42:00', 'voucherDepartmentPay': None, 'voucherId': None, 'voucherPay': None}, 'msg': 'SUCCESS'}</t>
         </is>
       </c>
       <c r="J3" s="0" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '07b2f4006d64437ebaf6cbf5849320e2', 'userName': '拓展real'}, {'cutAmount': None, 'divisionName': None, 'number': 2, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': 0.1, 'superiorCutAmount': 0.0, 'superiorId': '3e03b5451e0c4b4f8618874f269a814a', 'superiorName': '拓展经理real', 'superiorPayedCut': 0.0, 'superiorRoleName': '拓展经理', 'superiorSuperiorCutAmount': 0.0, 'superiorSuperiorId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'superiorSuperiorName': '区域总real', 'superiorSuperiorPayedCut': 0.0, 'superiorSuperiorRoleName': '拓展总监'}, {'number': 2, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 1, 'fixedAmount': None, 'standRatioDtos': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.5, 'userId': '3f232aa91d334502aea0d9424d01481b', 'userName': '驻场经理real1'}, {'cutAmount': 0.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.3, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': 0.0, 'divisionName': 'APP推送测试', 'number': 3, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '729e2f29f8a74724a6baa03f22991e45', 'userName': '驻场经理1'}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 0.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 0.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 0.5}, 'lineCutDone': 0, 'revenue': 0.0}, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '07b2f4006d64437ebaf6cbf5849320e2', 'userName': '拓展real'}, {'cutAmount': 0.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.2, 'userId': '647d5e2e777e42849881ffbd00dffa4f', 'userName': '普通管理员1'}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': 0.1, 'superiorCutAmount': 0.0, 'superiorId': '3e03b5451e0c4b4f8618874f269a814a', 'superiorName': '拓展经理real', 'superiorPayedCut': 0.0, 'superiorRoleName': '拓展经理', 'superiorSuperiorCutAmount': 0.0, 'superiorSuperiorId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'superiorSuperiorName': '区域总real', 'superiorSuperiorPayedCut': 0.0, 'superiorSuperiorRoleName': '拓展总监'}, {'number': 2, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 2, 'fixedAmount': 5000.0, 'standRatioDtos': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.5, 'userId': '266c54bcc1b311eba13000163e12a8a4', 'userName': '我是驻场'}, {'cutAmount': 0.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.3, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': 0.0, 'divisionName': 'APP推送测试', 'number': 3, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '729e2f29f8a74724a6baa03f22991e45', 'userName': '驻场经理1'}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 0.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 0.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 1.0}, 'lineCutDone': 0, 'revenue': 0.0, 'roleCutWayDtos': [{'cutRoleId': 1, 'fixedAmount': 10000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 2, 'fixedAmount': 4000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 3, 'fixedAmount': 5000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 4, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 5, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 6, 'fixedAmount': 10000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 7, 'fixedAmount': 0.0, 'way': 1, 'wayName': '按计提金额计算'}]}, 'msg': 'SUCCESS'}</t>
         </is>
       </c>
       <c r="J4" s="0" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '07b2f4006d64437ebaf6cbf5849320e2', 'userName': '拓展real'}, {'cutAmount': None, 'divisionName': None, 'number': 2, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': 0.1, 'superiorCutAmount': 0.0, 'superiorId': '3e03b5451e0c4b4f8618874f269a814a', 'superiorName': '拓展经理real', 'superiorPayedCut': 0.0, 'superiorRoleName': '拓展经理', 'superiorSuperiorCutAmount': 0.0, 'superiorSuperiorId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'superiorSuperiorName': '区域总real', 'superiorSuperiorPayedCut': 0.0, 'superiorSuperiorRoleName': '拓展总监'}, {'number': 2, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 1, 'fixedAmount': 0.0, 'standRatioDtos': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.5, 'userId': '3f232aa91d334502aea0d9424d01481b', 'userName': '驻场经理real1'}, {'cutAmount': 0.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.3, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': 0.0, 'divisionName': 'APP推送测试', 'number': 3, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '729e2f29f8a74724a6baa03f22991e45', 'userName': '驻场经理1'}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 0.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 0.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 0.5}, 'lineCutDone': 0, 'revenue': 0.0}, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': 1000.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '07b2f4006d64437ebaf6cbf5849320e2', 'userName': '拓展real'}, {'cutAmount': 2000.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.2, 'userId': '647d5e2e777e42849881ffbd00dffa4f', 'userName': '普通管理员1'}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': 0.1, 'superiorCutAmount': 400.0, 'superiorId': '3e03b5451e0c4b4f8618874f269a814a', 'superiorName': '拓展经理real', 'superiorPayedCut': 0.0, 'superiorRoleName': '拓展经理', 'superiorSuperiorCutAmount': 0.0, 'superiorSuperiorId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'superiorSuperiorName': '区域总real', 'superiorSuperiorPayedCut': 0.0, 'superiorSuperiorRoleName': '拓展总监'}, {'number': 2, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 2, 'fixedAmount': 5000.0, 'standRatioDtos': [{'cutAmount': 2500.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.5, 'userId': '266c54bcc1b311eba13000163e12a8a4', 'userName': '我是驻场'}, {'cutAmount': 1500.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.3, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': 500.0, 'divisionName': 'APP推送测试', 'number': 3, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '729e2f29f8a74724a6baa03f22991e45', 'userName': '驻场经理1'}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 10000.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 0.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 1.0}, 'lineCutDone': 0, 'revenue': 0.0, 'roleCutWayDtos': [{'cutRoleId': 1, 'fixedAmount': 10000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 2, 'fixedAmount': 4000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 3, 'fixedAmount': 5000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 4, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 5, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 6, 'fixedAmount': 10000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 7, 'fixedAmount': 0, 'way': 1, 'wayName': '按计提金额计算'}]}, 'msg': 'SUCCESS'}</t>
         </is>
       </c>
       <c r="J9" s="0" t="inlineStr">
@@ -2361,21 +2361,83 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="186" customHeight="1" s="1">
+    <row r="15" ht="101" customHeight="1" s="1">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>/commission/app/trade/faceSign/add</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>添加面签</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "cityId":306,
+    "platformId":999,
+    "system":"android",
+    "model":"phone",
+    "appId":"commission",
+    "uid":"${zc_userid}",
+    "tradeId":${tradeId},
+    "remark":"添加面签",
+    "faceSignDate":"${purchaseDate}",
+    "faceSignProof":[
+    ]
+}</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>zc_cookie</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="186" customHeight="1" s="1">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>/commission/app/trade/loan/add</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>添加放款</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>{
     "cityId":306,
@@ -2397,32 +2459,32 @@
 }</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>{"Connection":"Keep-Alive","Content-Type":"application/json;charset=utf-8"}</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>zc_cookie</t>
         </is>
       </c>
-      <c r="G15" s="0" t="inlineStr">
+      <c r="G16" s="0" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="H15" s="0" t="inlineStr">
+      <c r="H16" s="0" t="inlineStr">
         <is>
           <t>SUCCESS</t>
         </is>
       </c>
-      <c r="I15" s="0" t="inlineStr">
+      <c r="I16" s="0" t="inlineStr">
         <is>
           <t>{'code': 5000, 'data': None, 'msg': '已面签或(已网签且是按揭付款且无面签)才需要进行添加放款信息'}</t>
         </is>
       </c>
-      <c r="J15" s="0" t="inlineStr">
+      <c r="J16" s="0" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
@@ -2440,7 +2502,7 @@
     <hyperlink ref="B12" tooltip="https://pre.yunjinji.cn/commission/app/trade/initialSign/approve" display="/commission/app/trade/initialSign/approve" r:id="rId8"/>
     <hyperlink ref="B13" tooltip="https://pre.yunjinji.cn/commission/app/trade/netSign/edit" display="/commission/app/trade/netSign/edit" r:id="rId9"/>
     <hyperlink ref="B14" tooltip="https://pre.yunjinji.cn/commission/app/trade/netSign/approve" display="/commission/app/trade/netSign/approve" r:id="rId10"/>
-    <hyperlink ref="B15" tooltip="https://pre.yunjinji.cn/commission/app/trade/loan/add" display="/commission/app/trade/loan/add" r:id="rId11"/>
+    <hyperlink ref="B16" tooltip="https://pre.yunjinji.cn/commission/app/trade/loan/add" display="/commission/app/trade/loan/add" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2454,7 +2516,7 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2604,7 +2666,7 @@
     "originalPrice":1040000,
     "purchasePrice":1050000,
     "signPrice":1060000,
-    "paymentMethod":"2",
+    "paymentMethod":"${paymentMethod}",
     "groupbuy":1,
     "groupbuyPlanId":${groupbuyPlanId},"ignoreSameRoomNo":false,
     "receivableGroupbuy":40000,
@@ -2648,7 +2710,7 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': {'actualPayCommission': None, 'additionEnroll': 0, 'agencyTrade': 'PROJECT_AGENCY_TRADE', 'agentId': '86d50b0e8aa045068e8755b7eb62a6cb', 'agentStatus': None, 'changeHouseDate': None, 'changeHouseProof': [], 'collectingCompanyId': None, 'commProjectId': 68, 'costs': None, 'createBy': '3f232aa91d334502aea0d9424d01481b', 'createTime': '2022-03-24 18:39:12', 'currentPayableActualCommission': None, 'customerId': 39023, 'customerName': '龙光323栋业主1028', 'customerPhone': '13729112152', 'departmentId': 4807, 'departmentName': '北京日益通速递有限责任公司2222', 'dissent': None, 'divisionId': 40, 'divisionName': '测试部', 'exchangeOrder': False, 'faceSignDate': None, 'faceSignProof': [], 'finalAuditApproved': False, 'grossProfit': None, 'groupbuy': 1, 'groupbuyPayer': None, 'groupbuyPlanId': 10, 'groupbuyProof': [{'name': '599dae3c07fb416cbb55c63cb4f368de.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/599dae3c07fb416cbb55c63cb4f368de.jpeg'}], 'groupbuyRecieveDate': None, 'groupbuyRecieveId': None, 'groupbuyRecieveProof': [], 'groupbuyStatus': None, 'initialSignDate': None, 'initialSignProof': [], 'loanDate': None, 'loanProof': [], 'netProfits': None, 'netSignDate': None, 'netSignProof': [], 'normalStat': True, 'notAgencyTrade': False, 'oldTradeId': 0, 'originId': 0, 'originalPrice': 1040000, 'pay': None, 'payAdjustCommission': None, 'payAdjustMoney': None, 'payCaseDesc': None, 'payCaseDescribe': '平台/门店结佣方案', 'payCommPlanId': 206, 'payPlanId': None, 'payStatus': None, 'payableCommission': 83000.0, 'payableCommissionProof': [], 'payableMoney': None, 'payedCommission': None, 'paymentMethod': 2, 'paymentMethodDesc': '按揭付款', 'platformDeptName': '惠州云经纪', 'platformId': 999, 'platformPayAdjustCommission': None, 'platformPayCaseDescribe': None, 'platformPayCommPlanId': None, 'platformPayableCommission': None, 'platformPayableCommissionProof': [], 'prepay': 0, 'prepayCommission': None, 'projectAgencyOrder': True, 'projectAgencyTrade': True, 'projectId': 31, 'projectName': '华发四季1', 'projectPlatformId': 999, 'projectPlatformName': '中山云经纪', 'purchaseCode': 'RG2022032433172137', 'purchaseDate': '2022-03-23', 'purchaseOrderType': 'NORMAL', 'purchasePrice': 1050000, 'purchaseProof': [{'name': 'cb86f751782446cd8aeb18fa8cc5c15c.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/cb86f751782446cd8aeb18fa8cc5c15c.jpeg'}], 'reAdjustCommision': None, 'realReceiveGroupbuy': 0, 'recCaseDescribe': None, 'recCommPlanId': None, 'recStatus': None, 'recStatusDesc': None, 'receivableCommision': 0, 'receivableCommissionProof': [], 'receivableGroupbuy': 40000, 'receiveGroupbuy': 40000, 'receivedCommission': None, 'recheckApproved': None, 'remark': '调接口生成认购单', 'reportId': 44570, 'reportTime': '2022-03-23 12:41:00', 'returnHouseDate': None, 'returnHouseProof': [], 'returnOrChangeStage': False, 'revenue': None, 'roomArea': '104.00', 'roomNo': '龙光323栋1028', 'saleAgencyTrade': False, 'salePlatformId': 5109, 'salePlatformName': '惠州云经纪', 'salePlatformOrDepartment': '惠州云经纪', 'salePlatformOrDepartmentId': 5109, 'salePurchaseOrderId': 0, 'saleRecCommPlanId': None, 'settlePrice': 1060000, 'settlePriceProof': [], 'signPrice': 1060000, 'stage': 3, 'stageDesc': '认购', 'stageFromStatus': 3, 'stageState': None, 'status': 2, 'statusDesc': '认购初审中', 'totalReceivableCommission': 0, 'tradeConfirmDate': None, 'tradeId': 3312, 'unPayedCommission': None, 'unReceivedCommission': None, 'updateBy': '3f232aa91d334502aea0d9424d01481b', 'updateTime': '2022-03-24 18:39:12', 'validRecCommPlanId': None, 'visitTime': '2022-03-23 12:42:00', 'voucherDepartmentPay': None, 'voucherId': None, 'voucherPay': None}, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 2000, 'data': {'actualPayCommission': None, 'additionEnroll': 0, 'agencyTrade': 'PROJECT_AGENCY_TRADE', 'agentId': '86d50b0e8aa045068e8755b7eb62a6cb', 'agentStatus': None, 'changeHouseDate': None, 'changeHouseProof': [], 'collectingCompanyId': None, 'commProjectId': 68, 'costs': None, 'createBy': '3f232aa91d334502aea0d9424d01481b', 'createTime': '2022-03-31 18:19:04', 'currentPayableActualCommission': None, 'customerId': 39318, 'customerName': '华发331栋业主3017', 'customerPhone': '13729112152', 'departmentId': 4807, 'departmentName': '北京日益通速递有限责任公司2222', 'dissent': None, 'divisionId': 40, 'divisionName': '测试部', 'exchangeOrder': False, 'faceSignDate': None, 'faceSignProof': [], 'finalAuditApproved': False, 'grossProfit': None, 'groupbuy': 1, 'groupbuyPayer': None, 'groupbuyPlanId': 10, 'groupbuyProof': [{'name': '599dae3c07fb416cbb55c63cb4f368de.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/599dae3c07fb416cbb55c63cb4f368de.jpeg'}], 'groupbuyRecieveDate': None, 'groupbuyRecieveId': None, 'groupbuyRecieveProof': [], 'groupbuyStatus': None, 'initialSignDate': None, 'initialSignProof': [], 'loanDate': None, 'loanProof': [], 'netProfits': None, 'netSignDate': None, 'netSignProof': [], 'normalStat': True, 'notAgencyTrade': False, 'oldTradeId': 0, 'originId': 0, 'originalPrice': 1040000, 'pay': None, 'payAdjustCommission': None, 'payAdjustMoney': None, 'payCaseDesc': None, 'payCaseDescribe': '平台/门店结佣方案', 'payCommPlanId': 206, 'payPlanId': None, 'payStatus': None, 'payableCommission': 83000.0, 'payableCommissionProof': [], 'payableMoney': None, 'payedCommission': None, 'paymentMethod': 2, 'paymentMethodDesc': '按揭付款', 'platformDeptName': '惠州云经纪', 'platformId': 999, 'platformPayAdjustCommission': None, 'platformPayCaseDescribe': None, 'platformPayCommPlanId': None, 'platformPayableCommission': None, 'platformPayableCommissionProof': [], 'prepay': 0, 'prepayCommission': None, 'projectAgencyOrder': True, 'projectAgencyTrade': True, 'projectId': 31, 'projectName': '华发四季1', 'projectPlatformId': 999, 'projectPlatformName': '中山云经纪', 'purchaseCode': 'RG2022033133227272', 'purchaseDate': '2022-03-31', 'purchaseOrderType': 'NORMAL', 'purchasePrice': 1050000, 'purchaseProof': [{'name': 'cb86f751782446cd8aeb18fa8cc5c15c.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/cb86f751782446cd8aeb18fa8cc5c15c.jpeg'}], 'reAdjustCommision': None, 'realReceiveGroupbuy': 0, 'recCaseDescribe': None, 'recCommPlanId': None, 'recStatus': None, 'recStatusDesc': None, 'receivableCommision': 0, 'receivableCommissionProof': [], 'receivableGroupbuy': 40000, 'receiveGroupbuy': 40000, 'receivedCommission': None, 'recheckApproved': None, 'remark': '调接口生成认购单', 'reportId': 44707, 'reportTime': '2022-03-31 12:41:00', 'returnHouseDate': None, 'returnHouseProof': [], 'returnOrChangeStage': False, 'revenue': None, 'roomArea': '104.00', 'roomNo': '华发331栋3017', 'saleAgencyTrade': False, 'salePlatformId': 5109, 'salePlatformName': '惠州云经纪', 'salePlatformOrDepartment': '惠州云经纪', 'salePlatformOrDepartmentId': 5109, 'salePurchaseOrderId': 0, 'saleRecCommPlanId': None, 'settlePrice': 1060000, 'settlePriceProof': [], 'signPrice': 1060000, 'stage': 3, 'stageDesc': '认购', 'stageFromStatus': 3, 'stageState': None, 'status': 2, 'statusDesc': '认购初审中', 'totalReceivableCommission': 0, 'tradeConfirmDate': None, 'tradeId': 3517, 'unPayedCommission': None, 'unReceivedCommission': None, 'updateBy': '3f232aa91d334502aea0d9424d01481b', 'updateTime': '2022-03-31 18:19:04', 'validRecCommPlanId': None, 'visitTime': '2022-03-31 12:42:00', 'voucherDepartmentPay': None, 'voucherId': None, 'voucherPay': None}, 'msg': 'SUCCESS'}</t>
         </is>
       </c>
       <c r="J3" s="0" t="inlineStr">
@@ -2698,7 +2760,7 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': None, 'divisionName': None, 'number': 1, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 2, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 2, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 1, 'fixedAmount': None, 'standRatioDtos': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.5, 'userId': '3f232aa91d334502aea0d9424d01481b', 'userName': '驻场经理real1'}, {'cutAmount': 0.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.3, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': 0.0, 'divisionName': 'APP推送测试', 'number': 3, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '729e2f29f8a74724a6baa03f22991e45', 'userName': '驻场经理1'}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 0.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 0.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 0.5}, 'lineCutDone': 0, 'revenue': 0.0}, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': None, 'divisionName': None, 'number': 1, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 2, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 2, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 2, 'fixedAmount': 5000.0, 'standRatioDtos': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.5, 'userId': '266c54bcc1b311eba13000163e12a8a4', 'userName': '我是驻场'}, {'cutAmount': 0.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.3, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': 0.0, 'divisionName': 'APP推送测试', 'number': 3, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '729e2f29f8a74724a6baa03f22991e45', 'userName': '驻场经理1'}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 0.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 0.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 1.0}, 'lineCutDone': 0, 'revenue': 0.0, 'roleCutWayDtos': [{'cutRoleId': 1, 'fixedAmount': 10000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 2, 'fixedAmount': 4000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 3, 'fixedAmount': 5000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 4, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 5, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 6, 'fixedAmount': 10000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 7, 'fixedAmount': 0.0, 'way': 1, 'wayName': '按计提金额计算'}]}, 'msg': 'SUCCESS'}</t>
         </is>
       </c>
       <c r="J4" s="0" t="inlineStr">
@@ -3016,7 +3078,7 @@
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': None, 'divisionName': None, 'number': 1, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 2, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 2, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 1, 'fixedAmount': 0.0, 'standRatioDtos': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.5, 'userId': '3f232aa91d334502aea0d9424d01481b', 'userName': '驻场经理real1'}, {'cutAmount': 0.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.3, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': 0.0, 'divisionName': 'APP推送测试', 'number': 3, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '729e2f29f8a74724a6baa03f22991e45', 'userName': '驻场经理1'}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 0.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 0.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 0.5}, 'lineCutDone': 0, 'revenue': 0.0}, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': None, 'divisionName': None, 'number': 1, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 2, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 2, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 2, 'fixedAmount': 5000.0, 'standRatioDtos': [{'cutAmount': 2500.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.5, 'userId': '266c54bcc1b311eba13000163e12a8a4', 'userName': '我是驻场'}, {'cutAmount': 1500.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.3, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': 500.0, 'divisionName': 'APP推送测试', 'number': 3, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '729e2f29f8a74724a6baa03f22991e45', 'userName': '驻场经理1'}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 10000.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 0.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 1.0}, 'lineCutDone': 0, 'revenue': 0.0, 'roleCutWayDtos': [{'cutRoleId': 1, 'fixedAmount': 10000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 2, 'fixedAmount': 4000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 3, 'fixedAmount': 5000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 4, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 5, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 6, 'fixedAmount': 10000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 7, 'fixedAmount': 0, 'way': 1, 'wayName': '按计提金额计算'}]}, 'msg': 'SUCCESS'}</t>
         </is>
       </c>
       <c r="J9" s="0" t="inlineStr">
@@ -3778,12 +3840,12 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '房号华发四季330栋3025本次可收/抵扣金额应为80000.00'}</t>
         </is>
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -3847,12 +3909,12 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J3" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -3921,12 +3983,12 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J4" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -4000,12 +4062,12 @@
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J5" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -4066,12 +4128,12 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J6" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -4131,12 +4193,12 @@
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J7" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -4197,12 +4259,12 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J8" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -4371,12 +4433,12 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '房号华发四季330栋3025已收佣金金额应为:0'}</t>
         </is>
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -4428,12 +4490,12 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J3" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -4512,12 +4574,12 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J4" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -4578,12 +4640,12 @@
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J5" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -4643,12 +4705,12 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': True, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 5000, 'data': None, 'msg': '参数异常'}</t>
         </is>
       </c>
       <c r="J6" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -5558,7 +5620,7 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/test_data/purchase.xlsx
+++ b/test_data/purchase.xlsx
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': {'actualPayCommission': None, 'additionEnroll': 0, 'agencyTrade': 'NOT_AGENCY_TRADE', 'agentId': '86d50b0e8aa045068e8755b7eb62a6cb', 'agentStatus': None, 'changeHouseDate': None, 'changeHouseProof': [], 'collectingCompanyId': None, 'commProjectId': 68, 'costs': None, 'createBy': '3f232aa91d334502aea0d9424d01481b', 'createTime': '2022-03-31 18:25:45', 'currentPayableActualCommission': None, 'customerId': 39320, 'customerName': '华发331栋业主3018', 'customerPhone': '13729112152', 'departmentId': 4807, 'departmentName': '北京日益通速递有限责任公司2222', 'dissent': None, 'divisionId': 40, 'divisionName': '测试部', 'exchangeOrder': False, 'faceSignDate': None, 'faceSignProof': [], 'finalAuditApproved': False, 'grossProfit': None, 'groupbuy': 1, 'groupbuyPayer': None, 'groupbuyPlanId': 10, 'groupbuyProof': [{'name': '599dae3c07fb416cbb55c63cb4f368de.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/599dae3c07fb416cbb55c63cb4f368de.jpeg'}], 'groupbuyRecieveDate': None, 'groupbuyRecieveId': None, 'groupbuyRecieveProof': [], 'groupbuyStatus': None, 'initialSignDate': None, 'initialSignProof': [], 'loanDate': None, 'loanProof': [], 'netProfits': None, 'netSignDate': None, 'netSignProof': [], 'normalStat': True, 'notAgencyTrade': True, 'oldTradeId': 0, 'originId': 0, 'originalPrice': 1040000, 'pay': None, 'payAdjustCommission': None, 'payAdjustMoney': None, 'payCaseDesc': '平台/门店结佣方案', 'payCaseDescribe': '平台/门店结佣方案', 'payCommPlanId': 206, 'payPlanId': 206, 'payStatus': None, 'payableCommission': 83000.0, 'payableCommissionProof': [], 'payableMoney': 83000.0, 'payedCommission': None, 'paymentMethod': 2, 'paymentMethodDesc': '按揭付款', 'platformDeptName': '北京日益通速递有限责任公司2222', 'platformId': 999, 'platformPayAdjustCommission': None, 'platformPayCaseDescribe': None, 'platformPayCommPlanId': None, 'platformPayableCommission': None, 'platformPayableCommissionProof': [], 'prepay': 1, 'prepayCommission': None, 'projectAgencyOrder': False, 'projectAgencyTrade': False, 'projectId': 31, 'projectName': '华发四季1', 'projectPlatformId': 999, 'projectPlatformName': '中山云经纪', 'purchaseCode': 'RG2022033133227032', 'purchaseDate': '2022-03-31', 'purchaseOrderType': 'NORMAL', 'purchasePrice': 1050000, 'purchaseProof': [{'name': 'cb86f751782446cd8aeb18fa8cc5c15c.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/cb86f751782446cd8aeb18fa8cc5c15c.jpeg'}], 'reAdjustCommision': None, 'realReceiveGroupbuy': 0, 'recCaseDescribe': None, 'recCommPlanId': None, 'recStatus': None, 'recStatusDesc': None, 'receivableCommision': 0, 'receivableCommissionProof': [], 'receivableGroupbuy': 40000, 'receiveGroupbuy': 40000, 'receivedCommission': None, 'recheckApproved': None, 'remark': '调接口生成认购单', 'reportId': 44708, 'reportTime': '2022-03-31 12:41:00', 'returnHouseDate': None, 'returnHouseProof': [], 'returnOrChangeStage': False, 'revenue': None, 'roomArea': '104.00', 'roomNo': '华发331栋3018', 'saleAgencyTrade': False, 'salePlatformId': 999, 'salePlatformName': '中山云经纪', 'salePlatformOrDepartment': '北京日益通速递有限责任公司2222', 'salePlatformOrDepartmentId': 4807, 'salePurchaseOrderId': 0, 'saleRecCommPlanId': None, 'settlePrice': 1060000, 'settlePriceProof': [], 'signPrice': 1060000, 'stage': 3, 'stageDesc': '认购', 'stageFromStatus': 3, 'stageState': None, 'status': 2, 'statusDesc': '认购初审中', 'totalReceivableCommission': 0, 'tradeConfirmDate': None, 'tradeId': 3519, 'unPayedCommission': None, 'unReceivedCommission': None, 'updateBy': '3f232aa91d334502aea0d9424d01481b', 'updateTime': '2022-03-31 18:25:45', 'validRecCommPlanId': None, 'visitTime': '2022-03-31 12:42:00', 'voucherDepartmentPay': None, 'voucherId': None, 'voucherPay': None}, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 2000, 'data': {'actualPayCommission': None, 'additionEnroll': 0, 'agencyTrade': 'NOT_AGENCY_TRADE', 'agentId': '86d50b0e8aa045068e8755b7eb62a6cb', 'agentStatus': None, 'changeHouseDate': None, 'changeHouseProof': [], 'collectingCompanyId': None, 'commProjectId': 149, 'costs': None, 'createBy': '3f232aa91d334502aea0d9424d01481b', 'createTime': '2022-04-01 18:04:54', 'currentPayableActualCommission': None, 'customerId': 39381, 'customerName': '巨源401栋业主4013', 'customerPhone': '13729112152', 'departmentId': 4807, 'departmentName': '北京日益通速递有限责任公司2222', 'dissent': None, 'divisionId': 51, 'divisionName': '二级设计部部门', 'exchangeOrder': False, 'faceSignDate': None, 'faceSignProof': [], 'finalAuditApproved': False, 'grossProfit': None, 'groupbuy': 1, 'groupbuyPayer': None, 'groupbuyPlanId': 102, 'groupbuyProof': [{'name': '599dae3c07fb416cbb55c63cb4f368de.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/599dae3c07fb416cbb55c63cb4f368de.jpeg'}], 'groupbuyRecieveDate': None, 'groupbuyRecieveId': None, 'groupbuyRecieveProof': [], 'groupbuyStatus': None, 'initialSignDate': None, 'initialSignProof': [], 'loanDate': None, 'loanProof': [], 'netProfits': None, 'netSignDate': None, 'netSignProof': [], 'normalStat': True, 'notAgencyTrade': True, 'oldTradeId': 0, 'originId': 0, 'originalPrice': 1040000, 'pay': None, 'payAdjustCommission': None, 'payAdjustMoney': None, 'payCaseDesc': '巨源1-5套结佣方案', 'payCaseDescribe': '巨源1-5套结佣方案', 'payCommPlanId': 236, 'payPlanId': 236, 'payStatus': None, 'payableCommission': 51200.0, 'payableCommissionProof': [], 'payableMoney': 51200.0, 'payedCommission': None, 'paymentMethod': 2, 'paymentMethodDesc': '按揭付款', 'platformDeptName': '北京日益通速递有限责任公司2222', 'platformId': 999, 'platformPayAdjustCommission': None, 'platformPayCaseDescribe': None, 'platformPayCommPlanId': None, 'platformPayableCommission': None, 'platformPayableCommissionProof': [], 'prepay': 1, 'prepayCommission': None, 'projectAgencyOrder': False, 'projectAgencyTrade': False, 'projectId': 60563, 'projectName': '巨源·国际花园', 'projectPlatformId': 999, 'projectPlatformName': '中山云经纪', 'purchaseCode': 'RG2022040137374216', 'purchaseDate': '2022-04-01', 'purchaseOrderType': 'NORMAL', 'purchasePrice': 1050000, 'purchaseProof': [{'name': 'cb86f751782446cd8aeb18fa8cc5c15c.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/cb86f751782446cd8aeb18fa8cc5c15c.jpeg'}], 'reAdjustCommision': None, 'realReceiveGroupbuy': 0, 'recCaseDescribe': None, 'recCommPlanId': None, 'recStatus': None, 'recStatusDesc': None, 'receivableCommision': 0, 'receivableCommissionProof': [], 'receivableGroupbuy': 40000, 'receiveGroupbuy': 40000, 'receivedCommission': None, 'recheckApproved': None, 'remark': '调接口生成认购单', 'reportId': 44739, 'reportTime': '2022-04-01 07:41:00', 'returnHouseDate': None, 'returnHouseProof': [], 'returnOrChangeStage': False, 'revenue': None, 'roomArea': '104.00', 'roomNo': '巨源401栋4013', 'saleAgencyTrade': False, 'salePlatformId': 999, 'salePlatformName': '中山云经纪', 'salePlatformOrDepartment': '北京日益通速递有限责任公司2222', 'salePlatformOrDepartmentId': 4807, 'salePurchaseOrderId': 0, 'saleRecCommPlanId': None, 'settlePrice': 1060000, 'settlePriceProof': [], 'signPrice': 1060000, 'stage': 3, 'stageDesc': '认购', 'stageFromStatus': 3, 'stageState': None, 'status': 2, 'statusDesc': '认购初审中', 'totalReceivableCommission': 0, 'tradeConfirmDate': None, 'tradeId': 3551, 'unPayedCommission': None, 'unReceivedCommission': None, 'updateBy': '3f232aa91d334502aea0d9424d01481b', 'updateTime': '2022-04-01 18:04:54', 'validRecCommPlanId': None, 'visitTime': '2022-04-01 07:42:00', 'voucherDepartmentPay': None, 'voucherId': None, 'voucherPay': None}, 'msg': 'SUCCESS'}</t>
         </is>
       </c>
       <c r="J3" s="0" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '07b2f4006d64437ebaf6cbf5849320e2', 'userName': '拓展real'}, {'cutAmount': 0.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.2, 'userId': '647d5e2e777e42849881ffbd00dffa4f', 'userName': '普通管理员1'}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': 0.1, 'superiorCutAmount': 0.0, 'superiorId': '3e03b5451e0c4b4f8618874f269a814a', 'superiorName': '拓展经理real', 'superiorPayedCut': 0.0, 'superiorRoleName': '拓展经理', 'superiorSuperiorCutAmount': 0.0, 'superiorSuperiorId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'superiorSuperiorName': '区域总real', 'superiorSuperiorPayedCut': 0.0, 'superiorSuperiorRoleName': '拓展总监'}, {'number': 2, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 2, 'fixedAmount': 5000.0, 'standRatioDtos': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.5, 'userId': '266c54bcc1b311eba13000163e12a8a4', 'userName': '我是驻场'}, {'cutAmount': 0.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.3, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': 0.0, 'divisionName': 'APP推送测试', 'number': 3, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '729e2f29f8a74724a6baa03f22991e45', 'userName': '驻场经理1'}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 0.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 0.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 1.0}, 'lineCutDone': 0, 'revenue': 0.0, 'roleCutWayDtos': [{'cutRoleId': 1, 'fixedAmount': 10000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 2, 'fixedAmount': 4000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 3, 'fixedAmount': 5000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 4, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 5, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 6, 'fixedAmount': 10000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 7, 'fixedAmount': 0.0, 'way': 1, 'wayName': '按计提金额计算'}]}, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '07b2f4006d64437ebaf6cbf5849320e2', 'userName': '拓展real'}, {'cutAmount': 0.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.2, 'userId': '647d5e2e777e42849881ffbd00dffa4f', 'userName': '普通管理员1'}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': 0.1, 'superiorCutAmount': 0.0, 'superiorId': '3e03b5451e0c4b4f8618874f269a814a', 'superiorName': '拓展经理real', 'superiorPayedCut': 0.0, 'superiorRoleName': '拓展经理', 'superiorSuperiorCutAmount': 0.0, 'superiorSuperiorId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'superiorSuperiorName': '区域总real', 'superiorSuperiorPayedCut': 0.0, 'superiorSuperiorRoleName': '拓展总监'}, {'number': 2, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 2, 'fixedAmount': 10000.0, 'standRatioDtos': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 1.0, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': None, 'divisionName': None, 'number': 2, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 0.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 0.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 1.0}, 'lineCutDone': 0, 'revenue': 0.0, 'roleCutWayDtos': [{'cutRoleId': 1, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 2, 'fixedAmount': 10000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 3, 'fixedAmount': 10000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 4, 'fixedAmount': 8000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 5, 'fixedAmount': 5000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 6, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 7, 'fixedAmount': 0.0, 'way': 1, 'wayName': '按计提金额计算'}]}, 'msg': 'SUCCESS'}</t>
         </is>
       </c>
       <c r="J4" s="0" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': {'actualPayCommission': None, 'additionEnroll': 0, 'agencyTrade': 'PROJECT_AGENCY_TRADE', 'agentId': '86d50b0e8aa045068e8755b7eb62a6cb', 'agentStatus': None, 'changeHouseDate': None, 'changeHouseProof': [], 'collectingCompanyId': None, 'commProjectId': 68, 'costs': None, 'createBy': '3f232aa91d334502aea0d9424d01481b', 'createTime': '2022-03-31 18:19:04', 'currentPayableActualCommission': None, 'customerId': 39318, 'customerName': '华发331栋业主3017', 'customerPhone': '13729112152', 'departmentId': 4807, 'departmentName': '北京日益通速递有限责任公司2222', 'dissent': None, 'divisionId': 40, 'divisionName': '测试部', 'exchangeOrder': False, 'faceSignDate': None, 'faceSignProof': [], 'finalAuditApproved': False, 'grossProfit': None, 'groupbuy': 1, 'groupbuyPayer': None, 'groupbuyPlanId': 10, 'groupbuyProof': [{'name': '599dae3c07fb416cbb55c63cb4f368de.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/599dae3c07fb416cbb55c63cb4f368de.jpeg'}], 'groupbuyRecieveDate': None, 'groupbuyRecieveId': None, 'groupbuyRecieveProof': [], 'groupbuyStatus': None, 'initialSignDate': None, 'initialSignProof': [], 'loanDate': None, 'loanProof': [], 'netProfits': None, 'netSignDate': None, 'netSignProof': [], 'normalStat': True, 'notAgencyTrade': False, 'oldTradeId': 0, 'originId': 0, 'originalPrice': 1040000, 'pay': None, 'payAdjustCommission': None, 'payAdjustMoney': None, 'payCaseDesc': None, 'payCaseDescribe': '平台/门店结佣方案', 'payCommPlanId': 206, 'payPlanId': None, 'payStatus': None, 'payableCommission': 83000.0, 'payableCommissionProof': [], 'payableMoney': None, 'payedCommission': None, 'paymentMethod': 2, 'paymentMethodDesc': '按揭付款', 'platformDeptName': '惠州云经纪', 'platformId': 999, 'platformPayAdjustCommission': None, 'platformPayCaseDescribe': None, 'platformPayCommPlanId': None, 'platformPayableCommission': None, 'platformPayableCommissionProof': [], 'prepay': 0, 'prepayCommission': None, 'projectAgencyOrder': True, 'projectAgencyTrade': True, 'projectId': 31, 'projectName': '华发四季1', 'projectPlatformId': 999, 'projectPlatformName': '中山云经纪', 'purchaseCode': 'RG2022033133227272', 'purchaseDate': '2022-03-31', 'purchaseOrderType': 'NORMAL', 'purchasePrice': 1050000, 'purchaseProof': [{'name': 'cb86f751782446cd8aeb18fa8cc5c15c.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/cb86f751782446cd8aeb18fa8cc5c15c.jpeg'}], 'reAdjustCommision': None, 'realReceiveGroupbuy': 0, 'recCaseDescribe': None, 'recCommPlanId': None, 'recStatus': None, 'recStatusDesc': None, 'receivableCommision': 0, 'receivableCommissionProof': [], 'receivableGroupbuy': 40000, 'receiveGroupbuy': 40000, 'receivedCommission': None, 'recheckApproved': None, 'remark': '调接口生成认购单', 'reportId': 44707, 'reportTime': '2022-03-31 12:41:00', 'returnHouseDate': None, 'returnHouseProof': [], 'returnOrChangeStage': False, 'revenue': None, 'roomArea': '104.00', 'roomNo': '华发331栋3017', 'saleAgencyTrade': False, 'salePlatformId': 5109, 'salePlatformName': '惠州云经纪', 'salePlatformOrDepartment': '惠州云经纪', 'salePlatformOrDepartmentId': 5109, 'salePurchaseOrderId': 0, 'saleRecCommPlanId': None, 'settlePrice': 1060000, 'settlePriceProof': [], 'signPrice': 1060000, 'stage': 3, 'stageDesc': '认购', 'stageFromStatus': 3, 'stageState': None, 'status': 2, 'statusDesc': '认购初审中', 'totalReceivableCommission': 0, 'tradeConfirmDate': None, 'tradeId': 3517, 'unPayedCommission': None, 'unReceivedCommission': None, 'updateBy': '3f232aa91d334502aea0d9424d01481b', 'updateTime': '2022-03-31 18:19:04', 'validRecCommPlanId': None, 'visitTime': '2022-03-31 12:42:00', 'voucherDepartmentPay': None, 'voucherId': None, 'voucherPay': None}, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 2000, 'data': {'actualPayCommission': None, 'additionEnroll': 0, 'agencyTrade': 'PROJECT_AGENCY_TRADE', 'agentId': '86d50b0e8aa045068e8755b7eb62a6cb', 'agentStatus': None, 'changeHouseDate': None, 'changeHouseProof': [], 'collectingCompanyId': None, 'commProjectId': 68, 'costs': None, 'createBy': '3f232aa91d334502aea0d9424d01481b', 'createTime': '2022-04-01 10:47:49', 'currentPayableActualCommission': None, 'customerId': 39341, 'customerName': '华发331栋业主3031', 'customerPhone': '13729112152', 'departmentId': 4807, 'departmentName': '北京日益通速递有限责任公司2222', 'dissent': None, 'divisionId': 40, 'divisionName': '测试部', 'exchangeOrder': False, 'faceSignDate': None, 'faceSignProof': [], 'finalAuditApproved': False, 'grossProfit': None, 'groupbuy': 1, 'groupbuyPayer': None, 'groupbuyPlanId': 10, 'groupbuyProof': [{'name': '599dae3c07fb416cbb55c63cb4f368de.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/599dae3c07fb416cbb55c63cb4f368de.jpeg'}], 'groupbuyRecieveDate': None, 'groupbuyRecieveId': None, 'groupbuyRecieveProof': [], 'groupbuyStatus': None, 'initialSignDate': None, 'initialSignProof': [], 'loanDate': None, 'loanProof': [], 'netProfits': None, 'netSignDate': None, 'netSignProof': [], 'normalStat': True, 'notAgencyTrade': False, 'oldTradeId': 0, 'originId': 0, 'originalPrice': 1040000, 'pay': None, 'payAdjustCommission': None, 'payAdjustMoney': None, 'payCaseDesc': None, 'payCaseDescribe': '平台/门店结佣方案', 'payCommPlanId': 206, 'payPlanId': None, 'payStatus': None, 'payableCommission': 83000.0, 'payableCommissionProof': [], 'payableMoney': None, 'payedCommission': None, 'paymentMethod': 2, 'paymentMethodDesc': '按揭付款', 'platformDeptName': '惠州云经纪', 'platformId': 999, 'platformPayAdjustCommission': None, 'platformPayCaseDescribe': None, 'platformPayCommPlanId': None, 'platformPayableCommission': None, 'platformPayableCommissionProof': [], 'prepay': 0, 'prepayCommission': None, 'projectAgencyOrder': True, 'projectAgencyTrade': True, 'projectId': 31, 'projectName': '华发四季1', 'projectPlatformId': 999, 'projectPlatformName': '中山云经纪', 'purchaseCode': 'RG2022040133178137', 'purchaseDate': '2022-04-01', 'purchaseOrderType': 'NORMAL', 'purchasePrice': 1050000, 'purchaseProof': [{'name': 'cb86f751782446cd8aeb18fa8cc5c15c.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/cb86f751782446cd8aeb18fa8cc5c15c.jpeg'}], 'reAdjustCommision': None, 'realReceiveGroupbuy': 0, 'recCaseDescribe': None, 'recCommPlanId': None, 'recStatus': None, 'recStatusDesc': None, 'receivableCommision': 0, 'receivableCommissionProof': [], 'receivableGroupbuy': 40000, 'receiveGroupbuy': 40000, 'receivedCommission': None, 'recheckApproved': None, 'remark': '调接口生成认购单', 'reportId': 44720, 'reportTime': '2022-04-01 07:41:00', 'returnHouseDate': None, 'returnHouseProof': [], 'returnOrChangeStage': False, 'revenue': None, 'roomArea': '104.00', 'roomNo': '华发331栋3031', 'saleAgencyTrade': False, 'salePlatformId': 5109, 'salePlatformName': '惠州云经纪', 'salePlatformOrDepartment': '惠州云经纪', 'salePlatformOrDepartmentId': 5109, 'salePurchaseOrderId': 0, 'saleRecCommPlanId': None, 'settlePrice': 1060000, 'settlePriceProof': [], 'signPrice': 1060000, 'stage': 3, 'stageDesc': '认购', 'stageFromStatus': 3, 'stageState': None, 'status': 2, 'statusDesc': '认购初审中', 'totalReceivableCommission': 0, 'tradeConfirmDate': None, 'tradeId': 3531, 'unPayedCommission': None, 'unReceivedCommission': None, 'updateBy': '3f232aa91d334502aea0d9424d01481b', 'updateTime': '2022-04-01 10:47:49', 'validRecCommPlanId': None, 'visitTime': '2022-04-01 07:42:00', 'voucherDepartmentPay': None, 'voucherId': None, 'voucherPay': None}, 'msg': 'SUCCESS'}</t>
         </is>
       </c>
       <c r="J3" s="0" t="inlineStr">

--- a/test_data/purchase.xlsx
+++ b/test_data/purchase.xlsx
@@ -65,6 +65,61 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -79,16 +134,31 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,30 +172,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -133,60 +187,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -200,13 +200,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,19 +242,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,6 +302,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -260,7 +356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,115 +374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,17 +409,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,7 +422,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,24 +453,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -491,6 +467,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -499,10 +499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -511,16 +511,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
@@ -532,112 +532,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1301,8 +1301,8 @@
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': {'actualPayCommission': None, 'additionEnroll': 0, 'agencyTrade': 'NOT_AGENCY_TRADE', 'agentId': '86d50b0e8aa045068e8755b7eb62a6cb', 'agentStatus': None, 'changeHouseDate': None, 'changeHouseProof': [], 'collectingCompanyId': None, 'commProjectId': 149, 'costs': None, 'createBy': '3f232aa91d334502aea0d9424d01481b', 'createTime': '2022-04-01 18:04:54', 'currentPayableActualCommission': None, 'customerId': 39381, 'customerName': '巨源401栋业主4013', 'customerPhone': '13729112152', 'departmentId': 4807, 'departmentName': '北京日益通速递有限责任公司2222', 'dissent': None, 'divisionId': 51, 'divisionName': '二级设计部部门', 'exchangeOrder': False, 'faceSignDate': None, 'faceSignProof': [], 'finalAuditApproved': False, 'grossProfit': None, 'groupbuy': 1, 'groupbuyPayer': None, 'groupbuyPlanId': 102, 'groupbuyProof': [{'name': '599dae3c07fb416cbb55c63cb4f368de.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/599dae3c07fb416cbb55c63cb4f368de.jpeg'}], 'groupbuyRecieveDate': None, 'groupbuyRecieveId': None, 'groupbuyRecieveProof': [], 'groupbuyStatus': None, 'initialSignDate': None, 'initialSignProof': [], 'loanDate': None, 'loanProof': [], 'netProfits': None, 'netSignDate': None, 'netSignProof': [], 'normalStat': True, 'notAgencyTrade': True, 'oldTradeId': 0, 'originId': 0, 'originalPrice': 1040000, 'pay': None, 'payAdjustCommission': None, 'payAdjustMoney': None, 'payCaseDesc': '巨源1-5套结佣方案', 'payCaseDescribe': '巨源1-5套结佣方案', 'payCommPlanId': 236, 'payPlanId': 236, 'payStatus': None, 'payableCommission': 51200.0, 'payableCommissionProof': [], 'payableMoney': 51200.0, 'payedCommission': None, 'paymentMethod': 2, 'paymentMethodDesc': '按揭付款', 'platformDeptName': '北京日益通速递有限责任公司2222', 'platformId': 999, 'platformPayAdjustCommission': None, 'platformPayCaseDescribe': None, 'platformPayCommPlanId': None, 'platformPayableCommission': None, 'platformPayableCommissionProof': [], 'prepay': 1, 'prepayCommission': None, 'projectAgencyOrder': False, 'projectAgencyTrade': False, 'projectId': 60563, 'projectName': '巨源·国际花园', 'projectPlatformId': 999, 'projectPlatformName': '中山云经纪', 'purchaseCode': 'RG2022040137374216', 'purchaseDate': '2022-04-01', 'purchaseOrderType': 'NORMAL', 'purchasePrice': 1050000, 'purchaseProof': [{'name': 'cb86f751782446cd8aeb18fa8cc5c15c.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/cb86f751782446cd8aeb18fa8cc5c15c.jpeg'}], 'reAdjustCommision': None, 'realReceiveGroupbuy': 0, 'recCaseDescribe': None, 'recCommPlanId': None, 'recStatus': None, 'recStatusDesc': None, 'receivableCommision': 0, 'receivableCommissionProof': [], 'receivableGroupbuy': 40000, 'receiveGroupbuy': 40000, 'receivedCommission': None, 'recheckApproved': None, 'remark': '调接口生成认购单', 'reportId': 44739, 'reportTime': '2022-04-01 07:41:00', 'returnHouseDate': None, 'returnHouseProof': [], 'returnOrChangeStage': False, 'revenue': None, 'roomArea': '104.00', 'roomNo': '巨源401栋4013', 'saleAgencyTrade': False, 'salePlatformId': 999, 'salePlatformName': '中山云经纪', 'salePlatformOrDepartment': '北京日益通速递有限责任公司2222', 'salePlatformOrDepartmentId': 4807, 'salePurchaseOrderId': 0, 'saleRecCommPlanId': None, 'settlePrice': 1060000, 'settlePriceProof': [], 'signPrice': 1060000, 'stage': 3, 'stageDesc': '认购', 'stageFromStatus': 3, 'stageState': None, 'status': 2, 'statusDesc': '认购初审中', 'totalReceivableCommission': 0, 'tradeConfirmDate': None, 'tradeId': 3551, 'unPayedCommission': None, 'unReceivedCommission': None, 'updateBy': '3f232aa91d334502aea0d9424d01481b', 'updateTime': '2022-04-01 18:04:54', 'validRecCommPlanId': None, 'visitTime': '2022-04-01 07:42:00', 'voucherDepartmentPay': None, 'voucherId': None, 'voucherPay': None}, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 2000, 'data': {'actualPayCommission': None, 'additionEnroll': 0, 'agencyTrade': 'NOT_AGENCY_TRADE', 'agentId': '86d50b0e8aa045068e8755b7eb62a6cb', 'agentStatus': None, 'changeHouseDate': None, 'changeHouseProof': [], 'collectingCompanyId': None, 'commProjectId': 149, 'costs': None, 'createBy': '3f232aa91d334502aea0d9424d01481b', 'createTime': '2022-04-07 21:40:51', 'currentPayableActualCommission': None, 'customerId': 39653, 'customerName': '巨源406栋业主4345', 'customerPhone': '13729112152', 'departmentId': 4807, 'departmentName': '北京日益通速递有限责任公司2222', 'dissent': None, 'divisionId': 51, 'divisionName': '二级设计部部门', 'exchangeOrder': False, 'faceSignDate': None, 'faceSignProof': [], 'finalAuditApproved': False, 'grossProfit': None, 'groupbuy': 1, 'groupbuyPayer': None, 'groupbuyPlanId': 102, 'groupbuyProof': [{'name': '599dae3c07fb416cbb55c63cb4f368de.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/599dae3c07fb416cbb55c63cb4f368de.jpeg'}], 'groupbuyRecieveDate': None, 'groupbuyRecieveId': None, 'groupbuyRecieveProof': [], 'groupbuyStatus': None, 'initialSignDate': None, 'initialSignProof': [], 'loanDate': None, 'loanProof': [], 'netProfits': None, 'netSignDate': None, 'netSignProof': [], 'normalStat': True, 'notAgencyTrade': True, 'oldTradeId': 0, 'originId': 0, 'originalPrice': 1040000, 'pay': None, 'payAdjustCommission': None, 'payAdjustMoney': None, 'payCaseDesc': '巨源1-5套结佣方案', 'payCaseDescribe': '巨源1-5套结佣方案', 'payCommPlanId': 236, 'payPlanId': 236, 'payStatus': None, 'payableCommission': 51200.0, 'payableCommissionProof': [], 'payableMoney': 51200.0, 'payedCommission': None, 'paymentMethod': 2, 'paymentMethodDesc': '按揭付款', 'platformDeptName': '北京日益通速递有限责任公司2222', 'platformId': 999, 'platformPayAdjustCommission': None, 'platformPayCaseDescribe': None, 'platformPayCommPlanId': None, 'platformPayableCommission': None, 'platformPayableCommissionProof': [], 'prepay': 1, 'prepayCommission': None, 'projectAgencyOrder': False, 'projectAgencyTrade': False, 'projectId': 60563, 'projectName': '巨源·国际花园', 'projectPlatformId': 999, 'projectPlatformName': '中山云经纪', 'purchaseCode': 'RG2022040737423792', 'purchaseDate': '2022-04-06', 'purchaseOrderType': 'NORMAL', 'purchasePrice': 1050000, 'purchaseProof': [{'name': 'cb86f751782446cd8aeb18fa8cc5c15c.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/cb86f751782446cd8aeb18fa8cc5c15c.jpeg'}], 'reAdjustCommision': None, 'realReceiveGroupbuy': 0, 'recCaseDescribe': None, 'recCommPlanId': None, 'recStatus': None, 'recStatusDesc': None, 'receivableCommision': 0, 'receivableCommissionProof': [], 'receivableGroupbuy': 40000, 'receiveGroupbuy': 40000, 'receivedCommission': None, 'recheckApproved': None, 'remark': '调接口生成认购单', 'reportId': 44877, 'reportTime': '2022-04-06 07:41:00', 'returnHouseDate': None, 'returnHouseProof': [], 'returnOrChangeStage': False, 'revenue': None, 'roomArea': '104.00', 'roomNo': '巨源406栋4345', 'saleAgencyTrade': False, 'salePlatformId': 999, 'salePlatformName': '中山云经纪', 'salePlatformOrDepartment': '北京日益通速递有限责任公司2222', 'salePlatformOrDepartmentId': 4807, 'salePurchaseOrderId': 0, 'saleRecCommPlanId': None, 'settlePrice': 1060000, 'settlePriceProof': [], 'signPrice': 1060000, 'stage': 3, 'stageDesc': '认购', 'stageFromStatus': 3, 'stageState': None, 'status': 2, 'statusDesc': '认购初审中', 'totalReceivableCommission': 0, 'tradeConfirmDate': None, 'tradeId': 3716, 'unPayedCommission': None, 'unReceivedCommission': None, 'updateBy': '3f232aa91d334502aea0d9424d01481b', 'updateTime': '2022-04-07 21:40:51', 'validRecCommPlanId': None, 'visitTime': '2022-04-06 07:42:00', 'voucherDepartmentPay': None, 'voucherId': None, 'voucherPay': None}, 'msg': 'SUCCESS'}</t>
         </is>
       </c>
       <c r="J3" s="0" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '07b2f4006d64437ebaf6cbf5849320e2', 'userName': '拓展real'}, {'cutAmount': 0.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.2, 'userId': '647d5e2e777e42849881ffbd00dffa4f', 'userName': '普通管理员1'}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': 0.1, 'superiorCutAmount': 0.0, 'superiorId': '3e03b5451e0c4b4f8618874f269a814a', 'superiorName': '拓展经理real', 'superiorPayedCut': 0.0, 'superiorRoleName': '拓展经理', 'superiorSuperiorCutAmount': 0.0, 'superiorSuperiorId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'superiorSuperiorName': '区域总real', 'superiorSuperiorPayedCut': 0.0, 'superiorSuperiorRoleName': '拓展总监'}, {'number': 2, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 2, 'fixedAmount': 10000.0, 'standRatioDtos': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 1.0, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': None, 'divisionName': None, 'number': 2, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 0.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 0.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 1.0}, 'lineCutDone': 0, 'revenue': 0.0, 'roleCutWayDtos': [{'cutRoleId': 1, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 2, 'fixedAmount': 10000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 3, 'fixedAmount': 10000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 4, 'fixedAmount': 8000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 5, 'fixedAmount': 5000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 6, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 7, 'fixedAmount': 0.0, 'way': 1, 'wayName': '按计提金额计算'}]}, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '07b2f4006d64437ebaf6cbf5849320e2', 'userName': '拓展real'}, {'cutAmount': 0.0, 'divisionName': '测试拓展使用', 'number': 2, 'payedCut': 0.0, 'ratio': 0.2, 'userId': '8dc2901c03a34374826673ac41858d2e', 'userName': '靓仔拓展'}, {'cutAmount': 0.0, 'divisionName': '楼盘管理A部', 'number': 3, 'payedCut': 0.0, 'ratio': 0.3, 'userId': 'b2bc6086dac940679597dad9f0128a6c', 'userName': '拓展'}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': 0.1, 'superiorCutAmount': 0.0, 'superiorId': '3e03b5451e0c4b4f8618874f269a814a', 'superiorName': '拓展经理real', 'superiorPayedCut': 0.0, 'superiorRoleName': '拓展经理', 'superiorSuperiorCutAmount': 0.0, 'superiorSuperiorId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'superiorSuperiorName': '区域总real', 'superiorSuperiorPayedCut': 0.0, 'superiorSuperiorRoleName': '拓展总监'}, {'number': 2, 'ratio': 0.2, 'superiorCutAmount': 0.0, 'superiorId': 'd11dea224be542698388b2b753855899', 'superiorName': '靓女拓展经理', 'superiorPayedCut': 0.0, 'superiorRoleName': '拓展经理', 'superiorSuperiorCutAmount': 0.0, 'superiorSuperiorId': 'c672e49187c64770b8fa679b8ec6b74e', 'superiorSuperiorName': '帅气拓展总监', 'superiorSuperiorPayedCut': 0.0, 'superiorSuperiorRoleName': '拓展总监'}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 2, 'fixedAmount': 4000.0, 'standRatioDtos': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 1.0, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': None, 'divisionName': None, 'number': 2, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 0.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 0.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 1.0}, 'lineCutDone': 0, 'revenue': 0.0, 'roleCutWayDtos': [{'cutRoleId': 1, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 2, 'fixedAmount': 4000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 3, 'fixedAmount': 4000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 4, 'fixedAmount': 4000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 5, 'fixedAmount': 4000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 6, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 7, 'fixedAmount': 0.0, 'way': 1, 'wayName': '按计提金额计算'}]}, 'msg': 'SUCCESS'}</t>
         </is>
       </c>
       <c r="J4" s="0" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': 1000.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '07b2f4006d64437ebaf6cbf5849320e2', 'userName': '拓展real'}, {'cutAmount': 2000.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.2, 'userId': '647d5e2e777e42849881ffbd00dffa4f', 'userName': '普通管理员1'}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': 0.1, 'superiorCutAmount': 400.0, 'superiorId': '3e03b5451e0c4b4f8618874f269a814a', 'superiorName': '拓展经理real', 'superiorPayedCut': 0.0, 'superiorRoleName': '拓展经理', 'superiorSuperiorCutAmount': 0.0, 'superiorSuperiorId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'superiorSuperiorName': '区域总real', 'superiorSuperiorPayedCut': 0.0, 'superiorSuperiorRoleName': '拓展总监'}, {'number': 2, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 2, 'fixedAmount': 5000.0, 'standRatioDtos': [{'cutAmount': 2500.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.5, 'userId': '266c54bcc1b311eba13000163e12a8a4', 'userName': '我是驻场'}, {'cutAmount': 1500.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.3, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': 500.0, 'divisionName': 'APP推送测试', 'number': 3, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '729e2f29f8a74724a6baa03f22991e45', 'userName': '驻场经理1'}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 10000.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 0.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 1.0}, 'lineCutDone': 0, 'revenue': 0.0, 'roleCutWayDtos': [{'cutRoleId': 1, 'fixedAmount': 10000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 2, 'fixedAmount': 4000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 3, 'fixedAmount': 5000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 4, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 5, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 6, 'fixedAmount': 10000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 7, 'fixedAmount': 0, 'way': 1, 'wayName': '按计提金额计算'}]}, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '07b2f4006d64437ebaf6cbf5849320e2', 'userName': '拓展real'}, {'cutAmount': 0.0, 'divisionName': '测试拓展使用', 'number': 2, 'payedCut': 0.0, 'ratio': 0.2, 'userId': '8dc2901c03a34374826673ac41858d2e', 'userName': '靓仔拓展'}, {'cutAmount': 0.0, 'divisionName': '楼盘管理A部', 'number': 3, 'payedCut': 0.0, 'ratio': 0.3, 'userId': 'b2bc6086dac940679597dad9f0128a6c', 'userName': '拓展'}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': 0.1, 'superiorCutAmount': 400.0, 'superiorId': '3e03b5451e0c4b4f8618874f269a814a', 'superiorName': '拓展经理real', 'superiorPayedCut': 0.0, 'superiorRoleName': '拓展经理', 'superiorSuperiorCutAmount': 400.0, 'superiorSuperiorId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'superiorSuperiorName': '区域总real', 'superiorSuperiorPayedCut': 0.0, 'superiorSuperiorRoleName': '拓展总监'}, {'number': 2, 'ratio': 0.2, 'superiorCutAmount': 800.0, 'superiorId': 'd11dea224be542698388b2b753855899', 'superiorName': '靓女拓展经理', 'superiorPayedCut': 0.0, 'superiorRoleName': '拓展经理', 'superiorSuperiorCutAmount': 800.0, 'superiorSuperiorId': 'c672e49187c64770b8fa679b8ec6b74e', 'superiorSuperiorName': '帅气拓展总监', 'superiorSuperiorPayedCut': 0.0, 'superiorSuperiorRoleName': '拓展总监'}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 2, 'fixedAmount': 4000.0, 'standRatioDtos': [{'cutAmount': 4000.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 1.0, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': None, 'divisionName': None, 'number': 2, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 0.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 4000.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 1.0}, 'lineCutDone': 0, 'revenue': 0.0, 'roleCutWayDtos': [{'cutRoleId': 1, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 2, 'fixedAmount': 4000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 3, 'fixedAmount': 4000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 4, 'fixedAmount': 4000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 5, 'fixedAmount': 4000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 6, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 7, 'fixedAmount': 0.0, 'way': 1, 'wayName': '按计提金额计算'}]}, 'msg': 'SUCCESS'}</t>
         </is>
       </c>
       <c r="J9" s="0" t="inlineStr">
@@ -2043,7 +2043,12 @@
             "orderId":${tradeId},
             "proofs":[
             ],
-            "standCutCaseType":1,
+            "standCutCaseType":${standCutCaseType},
+            "fixedAmount":"${fixedAmount}",
+            "standManagerCutCaseType":${standManagerCutCaseType},
+            "standManagerFixedAmount":"${standManagerFixedAmount}",
+            "areaManagerCutCaseType":${areaManagerCutCaseType},
+            "areaManagerFixedAmount":"${areaManagerFixedAmount}",
             "standManagerId":"${standManagerId}",
             "standRatioDtos":${zc_cut}
         },
@@ -2051,6 +2056,12 @@
             "orderId":${tradeId},
             "proofs":[
             ],
+            "expandCutCaseType":${expandCutCaseType},
+            "expandFixedAmount":"${expandFixedAmount}",
+            "expandMgrCutCaseType":${expandMgrCutCaseType},
+            "expandMgrFixedAmount":"${expandMgrFixedAmount}",
+            "expandDirectorCutCaseType":${expandDirectorCutCaseType},
+            "expandDirectorFixedAmount":"${expandDirectorFixedAmount}",
             "expandRatioDtos":${expandRatios},
             "expandMgrRatioDtos":[
                 {
@@ -2710,7 +2721,7 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': {'actualPayCommission': None, 'additionEnroll': 0, 'agencyTrade': 'PROJECT_AGENCY_TRADE', 'agentId': '86d50b0e8aa045068e8755b7eb62a6cb', 'agentStatus': None, 'changeHouseDate': None, 'changeHouseProof': [], 'collectingCompanyId': None, 'commProjectId': 68, 'costs': None, 'createBy': '3f232aa91d334502aea0d9424d01481b', 'createTime': '2022-04-01 10:47:49', 'currentPayableActualCommission': None, 'customerId': 39341, 'customerName': '华发331栋业主3031', 'customerPhone': '13729112152', 'departmentId': 4807, 'departmentName': '北京日益通速递有限责任公司2222', 'dissent': None, 'divisionId': 40, 'divisionName': '测试部', 'exchangeOrder': False, 'faceSignDate': None, 'faceSignProof': [], 'finalAuditApproved': False, 'grossProfit': None, 'groupbuy': 1, 'groupbuyPayer': None, 'groupbuyPlanId': 10, 'groupbuyProof': [{'name': '599dae3c07fb416cbb55c63cb4f368de.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/599dae3c07fb416cbb55c63cb4f368de.jpeg'}], 'groupbuyRecieveDate': None, 'groupbuyRecieveId': None, 'groupbuyRecieveProof': [], 'groupbuyStatus': None, 'initialSignDate': None, 'initialSignProof': [], 'loanDate': None, 'loanProof': [], 'netProfits': None, 'netSignDate': None, 'netSignProof': [], 'normalStat': True, 'notAgencyTrade': False, 'oldTradeId': 0, 'originId': 0, 'originalPrice': 1040000, 'pay': None, 'payAdjustCommission': None, 'payAdjustMoney': None, 'payCaseDesc': None, 'payCaseDescribe': '平台/门店结佣方案', 'payCommPlanId': 206, 'payPlanId': None, 'payStatus': None, 'payableCommission': 83000.0, 'payableCommissionProof': [], 'payableMoney': None, 'payedCommission': None, 'paymentMethod': 2, 'paymentMethodDesc': '按揭付款', 'platformDeptName': '惠州云经纪', 'platformId': 999, 'platformPayAdjustCommission': None, 'platformPayCaseDescribe': None, 'platformPayCommPlanId': None, 'platformPayableCommission': None, 'platformPayableCommissionProof': [], 'prepay': 0, 'prepayCommission': None, 'projectAgencyOrder': True, 'projectAgencyTrade': True, 'projectId': 31, 'projectName': '华发四季1', 'projectPlatformId': 999, 'projectPlatformName': '中山云经纪', 'purchaseCode': 'RG2022040133178137', 'purchaseDate': '2022-04-01', 'purchaseOrderType': 'NORMAL', 'purchasePrice': 1050000, 'purchaseProof': [{'name': 'cb86f751782446cd8aeb18fa8cc5c15c.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/cb86f751782446cd8aeb18fa8cc5c15c.jpeg'}], 'reAdjustCommision': None, 'realReceiveGroupbuy': 0, 'recCaseDescribe': None, 'recCommPlanId': None, 'recStatus': None, 'recStatusDesc': None, 'receivableCommision': 0, 'receivableCommissionProof': [], 'receivableGroupbuy': 40000, 'receiveGroupbuy': 40000, 'receivedCommission': None, 'recheckApproved': None, 'remark': '调接口生成认购单', 'reportId': 44720, 'reportTime': '2022-04-01 07:41:00', 'returnHouseDate': None, 'returnHouseProof': [], 'returnOrChangeStage': False, 'revenue': None, 'roomArea': '104.00', 'roomNo': '华发331栋3031', 'saleAgencyTrade': False, 'salePlatformId': 5109, 'salePlatformName': '惠州云经纪', 'salePlatformOrDepartment': '惠州云经纪', 'salePlatformOrDepartmentId': 5109, 'salePurchaseOrderId': 0, 'saleRecCommPlanId': None, 'settlePrice': 1060000, 'settlePriceProof': [], 'signPrice': 1060000, 'stage': 3, 'stageDesc': '认购', 'stageFromStatus': 3, 'stageState': None, 'status': 2, 'statusDesc': '认购初审中', 'totalReceivableCommission': 0, 'tradeConfirmDate': None, 'tradeId': 3531, 'unPayedCommission': None, 'unReceivedCommission': None, 'updateBy': '3f232aa91d334502aea0d9424d01481b', 'updateTime': '2022-04-01 10:47:49', 'validRecCommPlanId': None, 'visitTime': '2022-04-01 07:42:00', 'voucherDepartmentPay': None, 'voucherId': None, 'voucherPay': None}, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 2000, 'data': {'actualPayCommission': None, 'additionEnroll': 0, 'agencyTrade': 'PROJECT_AGENCY_TRADE', 'agentId': '86d50b0e8aa045068e8755b7eb62a6cb', 'agentStatus': None, 'changeHouseDate': None, 'changeHouseProof': [], 'collectingCompanyId': None, 'commProjectId': 149, 'costs': None, 'createBy': '3f232aa91d334502aea0d9424d01481b', 'createTime': '2022-04-07 10:56:57', 'currentPayableActualCommission': None, 'customerId': 39620, 'customerName': '巨源406栋业主4334', 'customerPhone': '13729112152', 'departmentId': 4807, 'departmentName': '北京日益通速递有限责任公司2222', 'dissent': None, 'divisionId': 51, 'divisionName': '二级设计部部门', 'exchangeOrder': False, 'faceSignDate': None, 'faceSignProof': [], 'finalAuditApproved': False, 'grossProfit': None, 'groupbuy': 1, 'groupbuyPayer': None, 'groupbuyPlanId': 102, 'groupbuyProof': [{'name': '599dae3c07fb416cbb55c63cb4f368de.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/599dae3c07fb416cbb55c63cb4f368de.jpeg'}], 'groupbuyRecieveDate': None, 'groupbuyRecieveId': None, 'groupbuyRecieveProof': [], 'groupbuyStatus': None, 'initialSignDate': None, 'initialSignProof': [], 'loanDate': None, 'loanProof': [], 'netProfits': None, 'netSignDate': None, 'netSignProof': [], 'normalStat': True, 'notAgencyTrade': False, 'oldTradeId': 0, 'originId': 0, 'originalPrice': 1040000, 'pay': None, 'payAdjustCommission': None, 'payAdjustMoney': None, 'payCaseDesc': None, 'payCaseDescribe': '巨源1-5套结佣方案', 'payCommPlanId': 236, 'payPlanId': None, 'payStatus': None, 'payableCommission': 51200.0, 'payableCommissionProof': [], 'payableMoney': None, 'payedCommission': None, 'paymentMethod': 2, 'paymentMethodDesc': '按揭付款', 'platformDeptName': '惠州云经纪', 'platformId': 999, 'platformPayAdjustCommission': None, 'platformPayCaseDescribe': None, 'platformPayCommPlanId': None, 'platformPayableCommission': None, 'platformPayableCommissionProof': [], 'prepay': 0, 'prepayCommission': None, 'projectAgencyOrder': True, 'projectAgencyTrade': True, 'projectId': 60563, 'projectName': '巨源·国际花园', 'projectPlatformId': 999, 'projectPlatformName': '中山云经纪', 'purchaseCode': 'RG2022040733180337', 'purchaseDate': '2022-04-06', 'purchaseOrderType': 'NORMAL', 'purchasePrice': 1050000, 'purchaseProof': [{'name': 'cb86f751782446cd8aeb18fa8cc5c15c.jpeg', 'url': 'https://picos.wyzfang.com/pre/java/2022-2/cb86f751782446cd8aeb18fa8cc5c15c.jpeg'}], 'reAdjustCommision': None, 'realReceiveGroupbuy': 0, 'recCaseDescribe': None, 'recCommPlanId': None, 'recStatus': None, 'recStatusDesc': None, 'receivableCommision': 0, 'receivableCommissionProof': [], 'receivableGroupbuy': 40000, 'receiveGroupbuy': 40000, 'receivedCommission': None, 'recheckApproved': None, 'remark': '调接口生成认购单', 'reportId': 44860, 'reportTime': '2022-04-06 07:41:00', 'returnHouseDate': None, 'returnHouseProof': [], 'returnOrChangeStage': False, 'revenue': None, 'roomArea': '104.00', 'roomNo': '巨源406栋4334', 'saleAgencyTrade': False, 'salePlatformId': 5109, 'salePlatformName': '惠州云经纪', 'salePlatformOrDepartment': '惠州云经纪', 'salePlatformOrDepartmentId': 5109, 'salePurchaseOrderId': 0, 'saleRecCommPlanId': None, 'settlePrice': 1060000, 'settlePriceProof': [], 'signPrice': 1060000, 'stage': 3, 'stageDesc': '认购', 'stageFromStatus': 3, 'stageState': None, 'status': 2, 'statusDesc': '认购初审中', 'totalReceivableCommission': 0, 'tradeConfirmDate': None, 'tradeId': 3699, 'unPayedCommission': None, 'unReceivedCommission': None, 'updateBy': '3f232aa91d334502aea0d9424d01481b', 'updateTime': '2022-04-07 10:56:57', 'validRecCommPlanId': None, 'visitTime': '2022-04-06 07:42:00', 'voucherDepartmentPay': None, 'voucherId': None, 'voucherPay': None}, 'msg': 'SUCCESS'}</t>
         </is>
       </c>
       <c r="J3" s="0" t="inlineStr">
@@ -2760,7 +2771,7 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': None, 'divisionName': None, 'number': 1, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 2, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 2, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 2, 'fixedAmount': 5000.0, 'standRatioDtos': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.5, 'userId': '266c54bcc1b311eba13000163e12a8a4', 'userName': '我是驻场'}, {'cutAmount': 0.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.3, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': 0.0, 'divisionName': 'APP推送测试', 'number': 3, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '729e2f29f8a74724a6baa03f22991e45', 'userName': '驻场经理1'}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 0.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 0.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 1.0}, 'lineCutDone': 0, 'revenue': 0.0, 'roleCutWayDtos': [{'cutRoleId': 1, 'fixedAmount': 10000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 2, 'fixedAmount': 4000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 3, 'fixedAmount': 5000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 4, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 5, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 6, 'fixedAmount': 10000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 7, 'fixedAmount': 0.0, 'way': 1, 'wayName': '按计提金额计算'}]}, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': None, 'divisionName': None, 'number': 1, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 2, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 2, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 2, 'fixedAmount': 3000.0, 'standRatioDtos': [{'cutAmount': 0.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 1.0, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': None, 'divisionName': None, 'number': 2, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 0.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 0.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 1.0}, 'lineCutDone': 0, 'revenue': 0.0, 'roleCutWayDtos': [{'cutRoleId': 1, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 2, 'fixedAmount': 3000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 3, 'fixedAmount': 3000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 4, 'fixedAmount': 3000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 5, 'fixedAmount': 3000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 6, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 7, 'fixedAmount': 0.0, 'way': 1, 'wayName': '按计提金额计算'}]}, 'msg': 'SUCCESS'}</t>
         </is>
       </c>
       <c r="J4" s="0" t="inlineStr">
@@ -3078,7 +3089,7 @@
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': None, 'divisionName': None, 'number': 1, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 2, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 2, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 2, 'fixedAmount': 5000.0, 'standRatioDtos': [{'cutAmount': 2500.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.5, 'userId': '266c54bcc1b311eba13000163e12a8a4', 'userName': '我是驻场'}, {'cutAmount': 1500.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.3, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': 500.0, 'divisionName': 'APP推送测试', 'number': 3, 'payedCut': 0.0, 'ratio': 0.1, 'userId': '729e2f29f8a74724a6baa03f22991e45', 'userName': '驻场经理1'}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 10000.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 0.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 1.0}, 'lineCutDone': 0, 'revenue': 0.0, 'roleCutWayDtos': [{'cutRoleId': 1, 'fixedAmount': 10000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 2, 'fixedAmount': 4000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 3, 'fixedAmount': 5000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 4, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 5, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 6, 'fixedAmount': 10000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 7, 'fixedAmount': 0, 'way': 1, 'wayName': '按计提金额计算'}]}, 'msg': 'SUCCESS'}</t>
+          <t>{'code': 2000, 'data': {'accrualAmount': 0.0, 'accrualType': 1, 'currentExpandCut': {'cutCaseType': 1, 'expandRatios': [{'cutAmount': None, 'divisionName': None, 'number': 1, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 2, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}, {'cutAmount': None, 'divisionName': None, 'number': 3, 'payedCut': None, 'ratio': None, 'userId': None, 'userName': None}]}, 'currentExpandManager': {'cutCaseType': 1, 'expandManagers': [{'number': 1, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 2, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}, {'number': 3, 'ratio': None, 'superiorCutAmount': None, 'superiorId': None, 'superiorName': None, 'superiorPayedCut': None, 'superiorRoleName': None, 'superiorSuperiorCutAmount': None, 'superiorSuperiorId': None, 'superiorSuperiorName': None, 'superiorSuperiorPayedCut': None, 'superiorSuperiorRoleName': None}]}, 'currentStandCut': {'cutCaseType': 2, 'fixedAmount': 5000.0, 'standRatioDtos': [{'cutAmount': 2500.0, 'divisionName': '测试部', 'number': 1, 'payedCut': 0.0, 'ratio': 0.5, 'userId': '266c54bcc1b311eba13000163e12a8a4', 'userName': '我是驻场'}, {'cutAmount': 1000.0, 'divisionName': '测试部', 'number': 2, 'payedCut': 0.0, 'ratio': 0.2, 'userId': '055c509d3c1b4c2ebf2bc70fe8447e67', 'userName': '驻场real'}, {'cutAmount': 1500.0, 'divisionName': 'APP推送测试', 'number': 3, 'payedCut': 0.0, 'ratio': 0.3, 'userId': '729e2f29f8a74724a6baa03f22991e45', 'userName': '驻场经理1'}]}, 'currentStandManager': {'areaManager': '区域总real', 'areaManagerCutAmount': 10000.0, 'areaManagerId': '64ad4fcbfdcb4bf48e33f38f4e31c4ce', 'areaManagerPayedCut': 0.0, 'areaManagerRatio': 1.0, 'cutCaseType': 1, 'saleManager': '营销总提成r', 'saleManagerCutAmount': 0.0, 'saleManagerId': 'ce6cd59da32a40569664cb84ca109cbf', 'saleManagerPayedCut': 0.0, 'saleManagerRatio': 1.0, 'standManager': '驻场经理real1', 'standManagerCutAmount': 0.0, 'standManagerId': '3f232aa91d334502aea0d9424d01481b', 'standManagerPayedCut': 0.0, 'standManagerRatio': 1.0}, 'lineCutDone': 0, 'revenue': 0.0, 'roleCutWayDtos': [{'cutRoleId': 1, 'fixedAmount': 10000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 2, 'fixedAmount': 4000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 3, 'fixedAmount': 5000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 4, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 5, 'fixedAmount': None, 'way': 1, 'wayName': '按计提金额计算'}, {'cutRoleId': 6, 'fixedAmount': 10000.0, 'way': 2, 'wayName': '按固定金额计算'}, {'cutRoleId': 7, 'fixedAmount': 0.0, 'way': 1, 'wayName': '按计提金额计算'}]}, 'msg': 'SUCCESS'}</t>
         </is>
       </c>
       <c r="J9" s="0" t="inlineStr">
